--- a/Charging Stats Public.xlsx
+++ b/Charging Stats Public.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d9b3e26fd1afab2/Budget/Automobiles/Tesla/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5046" documentId="8_{4B7A67C7-4992-404D-9283-A94C3CBAEBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E0E50B-B99C-43F8-B05F-3EDEFC49E206}"/>
+  <xr:revisionPtr revIDLastSave="5109" documentId="8_{4B7A67C7-4992-404D-9283-A94C3CBAEBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272F87DA-3F55-434E-A558-053FCA8A9A9F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6900" windowWidth="29040" windowHeight="15720" tabRatio="759" activeTab="1" xr2:uid="{4C21DBE5-C231-4D27-B799-787E40999791}"/>
+    <workbookView xWindow="28680" yWindow="-6900" windowWidth="29040" windowHeight="15720" tabRatio="759" activeTab="4" xr2:uid="{4C21DBE5-C231-4D27-B799-787E40999791}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Saving Chart" sheetId="12" r:id="rId1"/>
     <sheet name="Emissions Chart" sheetId="11" r:id="rId2"/>
-    <sheet name="Charge Stats" sheetId="16" r:id="rId3"/>
-    <sheet name="Gas Purchased" sheetId="17" r:id="rId4"/>
-    <sheet name="Mo-Wk Total" sheetId="4" r:id="rId5"/>
-    <sheet name="Constants" sheetId="2" r:id="rId6"/>
-    <sheet name="FPL Bill History" sheetId="6" r:id="rId7"/>
-    <sheet name="Emissions Chart (Scenario)" sheetId="14" r:id="rId8"/>
-    <sheet name="Emissions Savings" sheetId="9" r:id="rId9"/>
-    <sheet name="Gas Chemistry" sheetId="8" r:id="rId10"/>
-    <sheet name="Cedar Key" sheetId="7" r:id="rId11"/>
-    <sheet name="Charging Tracker Old" sheetId="1" r:id="rId12"/>
+    <sheet name="Monthly Totals" sheetId="18" r:id="rId3"/>
+    <sheet name="Weekly Totals" sheetId="4" r:id="rId4"/>
+    <sheet name="Charge Stats" sheetId="16" r:id="rId5"/>
+    <sheet name="Gas Purchased" sheetId="17" r:id="rId6"/>
+    <sheet name="Constants" sheetId="2" r:id="rId7"/>
+    <sheet name="FPL Bill History" sheetId="6" r:id="rId8"/>
+    <sheet name="Emissions Chart (Scenario)" sheetId="14" r:id="rId9"/>
+    <sheet name="Emissions Savings" sheetId="9" r:id="rId10"/>
+    <sheet name="Gas Chemistry" sheetId="8" r:id="rId11"/>
+    <sheet name="Cedar Key" sheetId="7" r:id="rId12"/>
+    <sheet name="Charging Tracker Old" sheetId="1" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Charging Tracker Old'!$A$4:$AX$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FPL Bill History'!$A$1:$M$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Charging Tracker Old'!$A$4:$AX$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FPL Bill History'!$A$1:$M$14</definedName>
     <definedName name="Avg_MilesPerKWh">Constants!$C$6</definedName>
     <definedName name="ChargeCost_GasPricePerGallon_Range">'Charge Stats'!$V$4:$V$6000</definedName>
     <definedName name="ChargeStats_AllGasCost_Range">'Charge Stats'!$AC$4:$AC$6000</definedName>
@@ -3350,7 +3351,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3783,7 +3784,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3829,6 +3829,42 @@
     <xf numFmtId="165" fontId="0" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3859,41 +3895,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3937,7 +3940,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4281,13 +4295,13 @@
                   <c:v>48.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.168443133460769</c:v>
+                  <c:v>84.46941087539625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.34844313346078</c:v>
+                  <c:v>132.64941087539623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258.012</c:v>
+                  <c:v>274.536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,13 +4462,13 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>564</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>707</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>95.56</c:v>
+                  <c:v>101.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,10 +4967,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1872.9760000000001</c:v>
+                  <c:v>1992.9280000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>764.48</c:v>
+                  <c:v>813.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4983,7 +4997,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000000-BBD7-434E-98AA-AF2E105F812C}"/>
+                        <c16:uniqueId val="{00000000-52AD-486C-8EB3-03420573247D}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -5177,10 +5191,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>282.23722800000002</c:v>
+                  <c:v>300.20140799999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347.36889600000001</c:v>
+                  <c:v>369.478656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,7 +5221,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000001-BBD7-434E-98AA-AF2E105F812C}"/>
+                        <c16:uniqueId val="{00000001-52AD-486C-8EB3-03420573247D}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -5692,7 +5706,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11337.734799999997</c:v>
+                  <c:v>12059.372799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8157,7 +8171,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000000-DE10-4F53-A0CE-A6AE0DB27E39}"/>
+                        <c16:uniqueId val="{00000000-91E6-4B94-9476-E124993EC516}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -8361,7 +8375,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000001-DE10-4F53-A0CE-A6AE0DB27E39}"/>
+                        <c16:uniqueId val="{00000001-91E6-4B94-9476-E124993EC516}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -9253,10 +9267,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.20226308345120225</c:v>
+                  <c:v>0.1901595744680851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79773691654879775</c:v>
+                  <c:v>0.80984042553191493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9551,10 +9565,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.38132642401543393</c:v>
+                  <c:v>0.36321307182628748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61867357598456607</c:v>
+                  <c:v>0.63678692817371274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9856,13 +9870,13 @@
                   <c:v>48.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.168443133460769</c:v>
+                  <c:v>84.46941087539625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.34844313346078</c:v>
+                  <c:v>132.64941087539623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258.012</c:v>
+                  <c:v>274.536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10023,13 +10037,13 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>564</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>707</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>95.56</c:v>
+                  <c:v>101.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10476,10 +10490,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.38132642401543393</c:v>
+                  <c:v>0.36321307182628748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61867357598456607</c:v>
+                  <c:v>0.63678692817371274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10782,10 +10796,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.20226308345120225</c:v>
+                  <c:v>0.1901595744680851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79773691654879775</c:v>
+                  <c:v>0.80984042553191493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11167,19 +11181,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9112</c:v>
+                  <c:v>2.0335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9556</c:v>
+                  <c:v>1.0167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19112000000000007</c:v>
+                  <c:v>0.20336000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5560000000000034E-2</c:v>
+                  <c:v>0.10168000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38224000000000014</c:v>
+                  <c:v>0.40672000000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11380,13 +11394,13 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20263185599999997</c:v>
+                  <c:v>0.21552921599999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24122840000000001</c:v>
+                  <c:v>0.25658240000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.206142E-2</c:v>
+                  <c:v>1.2829119999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>0</c:v>
@@ -11895,10 +11909,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>764.48</c:v>
+                  <c:v>813.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347.36889600000001</c:v>
+                  <c:v>369.478656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12258,10 +12272,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1872.9760000000001</c:v>
+                  <c:v>1992.9280000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>282.23722800000002</c:v>
+                  <c:v>300.20140799999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20762,13 +20776,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>36196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000124</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20798,13 +20812,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1012982</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>62868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>16667</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>64773</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20834,13 +20848,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1018697</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>18098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>80485</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20870,13 +20884,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>58099</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>450531</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20908,13 +20922,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1004410</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>97630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>15715</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>135730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20956,7 +20970,7 @@
       <cdr:x>0.96881</cdr:x>
       <cdr:y>0.11922</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Emissions Chart'!$E$5">
+    <cdr:sp macro="" textlink="'Emissions Chart'!$E$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21042,7 +21056,7 @@
       <cdr:x>0.97485</cdr:x>
       <cdr:y>0.18055</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Emissions Chart'!$H$5">
+    <cdr:sp macro="" textlink="'Emissions Chart'!$J$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21075,7 +21089,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Emissions from 707 KWh at Electric Power Plant vs. 95.56 Gallons of Gas to go 1751 Miles</a:t>
+            <a:t>Emissions from 752 KWh at Electric Power Plant vs. 101.68 Gallons of Gas to go 1751 Miles</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
@@ -21091,7 +21105,7 @@
       <cdr:x>1</cdr:x>
       <cdr:y>0.16722</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Emissions Chart'!$H$6">
+    <cdr:sp macro="" textlink="'Emissions Chart'!$J$7">
       <cdr:nvSpPr>
         <cdr:cNvPr id="5" name="TextBox 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21145,7 +21159,7 @@
       <cdr:x>0.96881</cdr:x>
       <cdr:y>0.11922</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Emissions Chart'!$E$5">
+    <cdr:sp macro="" textlink="'Emissions Chart'!$E$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21231,7 +21245,7 @@
       <cdr:x>0.97772</cdr:x>
       <cdr:y>0.18507</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'Emissions Chart'!$H$5">
+    <cdr:sp macro="" textlink="'Emissions Chart'!$J$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21264,7 +21278,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Emissions from 707 KWh at Electric Power Plant vs. 95.56 Gallons of Gas to go 1751 Miles</a:t>
+            <a:t>Emissions from 752 KWh at Electric Power Plant vs. 101.68 Gallons of Gas to go 1751 Miles</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
@@ -22339,8 +22353,8 @@
   </sheetPr>
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22360,38 +22374,38 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="173"/>
       <c r="B1" s="173"/>
-      <c r="C1" s="255" t="str">
+      <c r="C1" s="245" t="str">
         <f>'Charging Tracker Old'!D3</f>
         <v>Charging Stats</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
       <c r="F1" s="144"/>
-      <c r="G1" s="253" t="str">
+      <c r="G1" s="243" t="str">
         <f>'Charging Tracker Old'!S3</f>
         <v>Charging Cost Totals</v>
       </c>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
       <c r="J1" s="146"/>
-      <c r="K1" s="254" t="str">
+      <c r="K1" s="244" t="str">
         <f>'Charging Tracker Old'!AB3</f>
         <v>Super Vs Home Charge Cost</v>
       </c>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="256" t="str">
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="246" t="str">
         <f>'Charging Tracker Old'!Y3</f>
         <v>Gas Saving</v>
       </c>
-      <c r="O1" s="257"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="259" t="s">
+      <c r="O1" s="247"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="239" t="s">
         <v>409</v>
       </c>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="261"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="241"/>
     </row>
     <row r="2" spans="1:20" s="180" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
@@ -22478,71 +22492,71 @@
       </c>
       <c r="D3" s="145">
         <f>SUMIFS(ChargeStats_HomeKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="E3" s="145">
         <f>SUMIFS(ChargeStats_TotalKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="F3" s="160">
         <f>SUMIFS(ChargeStats_EstGallonsOfGas_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>95.56</v>
-      </c>
-      <c r="G3" s="237">
+        <v>101.68</v>
+      </c>
+      <c r="G3" s="236">
         <f>SUMIFS(ChargeStats_ChargeCostSuperCharger_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
         <v>48.180000000000007</v>
       </c>
-      <c r="H3" s="237">
+      <c r="H3" s="236">
         <f ca="1">SUMIFS(ChargeStats_ChargeCostHome_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>78.168443133460769</v>
-      </c>
-      <c r="I3" s="237">
+        <v>84.46941087539625</v>
+      </c>
+      <c r="I3" s="236">
         <f ca="1">SUMIFS(ChargeStats_TotalChargeCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>126.34844313346078</v>
-      </c>
-      <c r="J3" s="238">
+        <v>132.64941087539623</v>
+      </c>
+      <c r="J3" s="237">
         <f>SUMIFS(ChargeStats_EstGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>258.012</v>
+        <v>274.536</v>
       </c>
       <c r="K3" s="143" cm="1">
         <f t="array" ref="K3">SUMIFS(ChargeStats_AllSuperChgCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>271.03000000000003</v>
+        <v>289.02999999999997</v>
       </c>
       <c r="L3" s="143" cm="1">
         <f t="array" ref="L3">SUMIFS(ChargeStats_AllGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>258.012</v>
+        <v>274.536</v>
       </c>
       <c r="M3" s="143" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">SUMIFS(ChargeStats_AllHomeChg_Range,ChargeStats_Date_Range,"&gt;="&amp;$A$3,ChargeStats_Date_Range,"&lt;="&amp;$B$3)</f>
-        <v>97.766442828966504</v>
+        <v>104.06741057090198</v>
       </c>
       <c r="N3" s="20">
         <f ca="1">'Charge Stats'!Y$2</f>
-        <v>131.66355686653924</v>
+        <v>141.88658912460377</v>
       </c>
       <c r="O3" s="21">
         <f ca="1">'Charge Stats'!Z$2</f>
-        <v>0.51030012893407761</v>
+        <v>0.51682325496329728</v>
       </c>
       <c r="P3" s="20">
         <f ca="1">'Charge Stats'!AA$2</f>
-        <v>144.6815568665393</v>
-      </c>
-      <c r="Q3" s="239">
+        <v>156.3805891246038</v>
+      </c>
+      <c r="Q3" s="238">
         <f>C3/E3</f>
-        <v>0.20226308345120225</v>
-      </c>
-      <c r="R3" s="239">
+        <v>0.1901595744680851</v>
+      </c>
+      <c r="R3" s="238">
         <f>D3/E3</f>
-        <v>0.79773691654879775</v>
-      </c>
-      <c r="S3" s="239">
+        <v>0.80984042553191493</v>
+      </c>
+      <c r="S3" s="238">
         <f ca="1">G3/I3</f>
-        <v>0.38132642401543393</v>
-      </c>
-      <c r="T3" s="239">
+        <v>0.36321307182628748</v>
+      </c>
+      <c r="T3" s="238">
         <f ca="1">H3/I3</f>
-        <v>0.61867357598456607</v>
+        <v>0.63678692817371274</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -22554,34 +22568,34 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="276" t="s">
+      <c r="A25" s="242" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="276"/>
-      <c r="C25" s="276"/>
-      <c r="D25" s="276"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="276"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="276"/>
-      <c r="K25" s="276"/>
-      <c r="L25" s="276"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="276"/>
-      <c r="B26" s="276"/>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="276"/>
-      <c r="G26" s="276"/>
-      <c r="H26" s="276"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
-      <c r="L26" s="276"/>
+      <c r="A26" s="242"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
@@ -23391,12 +23405,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A25:L26"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
@@ -23405,6 +23419,578 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F43916-3548-46AA-9E61-D40002FC9B6B}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="59.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="265"/>
+      <c r="C1" s="266" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="267"/>
+      <c r="E1" s="266" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="267"/>
+      <c r="G1" s="262" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="263"/>
+      <c r="I1" s="133" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="85">
+        <f>A4*Constants!$C$16*(1-Constants!$C$11)</f>
+        <v>1380.0000000000002</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="78">
+        <f>C4*Constants!$C$16*(1-Constants!$C$11)</f>
+        <v>18215.488888888874</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="78">
+        <f>E4*Constants!$C$16*(1-Constants!$C$11)</f>
+        <v>18215.488888888874</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="78">
+        <f>G4*Constants!$C$16*(1-Constants!$C$11)</f>
+        <v>3507.9600000000009</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="73">
+        <f>J14/MPG_Kia</f>
+        <v>40</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="73">
+        <f>Constants!C41</f>
+        <v>527.98518518518472</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="73">
+        <f>Constants!C38</f>
+        <v>527.98518518518472</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="73">
+        <f>Total_GallonsGas</f>
+        <v>101.68</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="74">
+        <f>'Gas Chemistry'!$B$18*A4</f>
+        <v>1105.4800000000002</v>
+      </c>
+      <c r="B5" s="87">
+        <f>Constants!$B$31*B3</f>
+        <v>6846.4408200000016</v>
+      </c>
+      <c r="C5" s="74">
+        <f>'Gas Chemistry'!$B$18*C4</f>
+        <v>14591.926562962952</v>
+      </c>
+      <c r="D5" s="80">
+        <f>Constants!$B$31*D3</f>
+        <v>90370.483105177715</v>
+      </c>
+      <c r="E5" s="74">
+        <f>'Gas Chemistry'!$B$18*E4</f>
+        <v>14591.926562962952</v>
+      </c>
+      <c r="F5" s="80">
+        <f>Constants!$B$31*F3</f>
+        <v>90370.483105177715</v>
+      </c>
+      <c r="G5" s="74">
+        <f>'Gas Chemistry'!$B$18*G4</f>
+        <v>2810.1301600000006</v>
+      </c>
+      <c r="H5" s="80">
+        <f>Constants!$B$31*H3</f>
+        <v>17403.652564440006</v>
+      </c>
+      <c r="I5" s="60">
+        <f>G5-H5</f>
+        <v>-14593.522404440006</v>
+      </c>
+      <c r="J5" s="99"/>
+      <c r="K5" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="75">
+        <f>Constants!$C$24*A4</f>
+        <v>320</v>
+      </c>
+      <c r="B6" s="88">
+        <f>(Constants!$B$24+Constants!$B$25)*B3</f>
+        <v>6684.7200000000012</v>
+      </c>
+      <c r="C6" s="75">
+        <f>Constants!$C$24*C4</f>
+        <v>4223.8814814814777</v>
+      </c>
+      <c r="D6" s="81">
+        <f>(Constants!$B$24+Constants!$B$25)*D3</f>
+        <v>88235.828177777716</v>
+      </c>
+      <c r="E6" s="75">
+        <f>Constants!$C$24*E4</f>
+        <v>4223.8814814814777</v>
+      </c>
+      <c r="F6" s="81">
+        <f>(Constants!$B$24+Constants!$B$25)*F3</f>
+        <v>88235.828177777716</v>
+      </c>
+      <c r="G6" s="75">
+        <f>Constants!$C$24*G4</f>
+        <v>813.44</v>
+      </c>
+      <c r="H6" s="81">
+        <f>(Constants!$B$24+Constants!$B$25)*H3</f>
+        <v>16992.558240000006</v>
+      </c>
+      <c r="I6" s="64">
+        <f>G6-H6</f>
+        <v>-16179.118240000005</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="76">
+        <f>'Gas Chemistry'!$B$19*A4</f>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="B7" s="89">
+        <f>Constants!$B$32*B3</f>
+        <v>0.26082000000000005</v>
+      </c>
+      <c r="C7" s="76">
+        <f>'Gas Chemistry'!$B$19*C4</f>
+        <v>19.535451851851839</v>
+      </c>
+      <c r="D7" s="82">
+        <f>Constants!$B$32*D3</f>
+        <v>3.4427273999999977</v>
+      </c>
+      <c r="E7" s="76">
+        <f>'Gas Chemistry'!$B$19*E4</f>
+        <v>19.535451851851839</v>
+      </c>
+      <c r="F7" s="82">
+        <f>Constants!$B$32*F3</f>
+        <v>3.4427273999999977</v>
+      </c>
+      <c r="G7" s="76">
+        <f>'Gas Chemistry'!$B$19*G4</f>
+        <v>3.7621600000000006</v>
+      </c>
+      <c r="H7" s="82">
+        <f>Constants!$B$32*H3</f>
+        <v>0.66300444000000025</v>
+      </c>
+      <c r="I7" s="54">
+        <f>G7-H7</f>
+        <v>3.0991555600000003</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77">
+        <f>'Gas Chemistry'!$B$11*A4</f>
+        <v>784</v>
+      </c>
+      <c r="B8" s="90">
+        <f>Constants!$B$23*B3</f>
+        <v>161.46000000000004</v>
+      </c>
+      <c r="C8" s="77">
+        <f>'Gas Chemistry'!$B$11*C4</f>
+        <v>10348.509629629621</v>
+      </c>
+      <c r="D8" s="83">
+        <f>Constants!$B$23*D3</f>
+        <v>2131.2121999999986</v>
+      </c>
+      <c r="E8" s="77">
+        <f>'Gas Chemistry'!$B$11*E4</f>
+        <v>10348.509629629621</v>
+      </c>
+      <c r="F8" s="83">
+        <f>Constants!$B$23*F3</f>
+        <v>2131.2121999999986</v>
+      </c>
+      <c r="G8" s="77">
+        <f>'Gas Chemistry'!$B$11*G4</f>
+        <v>1992.9280000000003</v>
+      </c>
+      <c r="H8" s="83">
+        <f>Constants!$B$23*H3</f>
+        <v>410.43132000000014</v>
+      </c>
+      <c r="I8" s="96">
+        <f>G8-H8</f>
+        <v>1582.4966800000002</v>
+      </c>
+      <c r="J8" s="100"/>
+      <c r="K8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="102">
+        <f ca="1">'Charge Stats'!Y2</f>
+        <v>141.88658912460377</v>
+      </c>
+      <c r="K9" s="104" t="str">
+        <f>'Charge Stats'!Y4</f>
+        <v>Charge / Gas Cost Difference</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="103">
+        <f ca="1">'Charge Stats'!AA2</f>
+        <v>156.3805891246038</v>
+      </c>
+      <c r="K10" s="104" t="str">
+        <f>'Charge Stats'!AA4</f>
+        <v>Home Chg Saving</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="126">
+        <f>Constants!C37</f>
+        <v>1425.5599999999997</v>
+      </c>
+      <c r="K11" s="127" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="128">
+        <f>Constants!C10</f>
+        <v>71</v>
+      </c>
+      <c r="K12" s="127" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="128">
+        <f>'Charge Stats'!B2</f>
+        <v>2542</v>
+      </c>
+      <c r="K13" s="127" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="147">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="K15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f>Constants!C10*4</f>
+        <v>284</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
+        <f>1-(J16/I8)</f>
+        <v>0.82053674829826506</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="261" t="s">
+        <v>363</v>
+      </c>
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I19" s="125" t="s">
+        <v>361</v>
+      </c>
+      <c r="J19" s="124" t="s">
+        <v>362</v>
+      </c>
+      <c r="K19" s="125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="149">
+        <f>Constants!A23*$A$4</f>
+        <v>538.20000000000005</v>
+      </c>
+      <c r="J20" s="153">
+        <f>Constants!C23*$A$4</f>
+        <v>784</v>
+      </c>
+      <c r="K20" s="121" t="str">
+        <f>Constants!D23</f>
+        <v>Carbon dioxide (CO₂)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="86">
+        <f>Constants!A24*$A$4</f>
+        <v>662.4</v>
+      </c>
+      <c r="J21" s="154">
+        <f>Constants!C24*$A$4</f>
+        <v>320</v>
+      </c>
+      <c r="K21" s="122" t="str">
+        <f>Constants!D24</f>
+        <v>Water vapor (H₂O)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="86">
+        <f>Constants!A25*$A$4</f>
+        <v>21620</v>
+      </c>
+      <c r="J22" s="154">
+        <f>Constants!C25*$A$4</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="122" t="str">
+        <f>Constants!D25</f>
+        <v xml:space="preserve"> **Nitrogen**       N₂              </v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="150">
+        <f>Constants!A26*$A$4</f>
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="J23" s="155">
+        <f>Constants!C26*$A$4</f>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="122" t="str">
+        <f>Constants!D26</f>
+        <v>Carbon monoxide (CO)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="150">
+        <f>Constants!A27*$A$4</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="J24" s="155">
+        <f>Constants!C27*$A$4</f>
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="122" t="str">
+        <f>Constants!D27</f>
+        <v>Nitrogen oxides (NOₓ)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" s="150">
+        <f>Constants!A28*$A$4</f>
+        <v>2.3000000000000003E-2</v>
+      </c>
+      <c r="J25" s="155">
+        <f>Constants!C28*$A$4</f>
+        <v>0.08</v>
+      </c>
+      <c r="K25" s="122" t="str">
+        <f>Constants!D28</f>
+        <v>Unburned hydrocarbons (VOCs)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I26" s="150">
+        <f>Constants!A29*$A$4</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="155">
+        <f>Constants!C29*$A$4</f>
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="122" t="str">
+        <f>Constants!D29</f>
+        <v>Particulate matter (PM2.5)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I27" s="150">
+        <f>Constants!A30*$A$4</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="155">
+        <f>Constants!C30*$A$4</f>
+        <v>0.16</v>
+      </c>
+      <c r="K27" s="122" t="str">
+        <f>Constants!D30</f>
+        <v>Sulfur dioxide (SO₂)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="151">
+        <f>Constants!A31*$A$4</f>
+        <v>22821.469400000002</v>
+      </c>
+      <c r="J28" s="156">
+        <f>Constants!C31*$A$4</f>
+        <v>1105.4800000000002</v>
+      </c>
+      <c r="K28" s="122" t="str">
+        <f>Constants!D31</f>
+        <v>Total Weight of Chemicals in Atmosphere</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="152">
+        <f>Constants!A32*$A$4</f>
+        <v>0.86940000000000006</v>
+      </c>
+      <c r="J29" s="157">
+        <f>Constants!C32*$A$4</f>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="K29" s="123" t="str">
+        <f>Constants!D32</f>
+        <v>Weight of Harmful Chemicals</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="K30" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DB6ACB-DC47-4D7A-9F7E-F88CFB5FEA63}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F214"/>
@@ -24538,7 +25124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B40F05-89D9-4DCB-A340-1E36E1656268}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:R26"/>
@@ -24626,7 +25212,7 @@
       </c>
       <c r="R2" s="4">
         <f>Avg_MilesPerKWh</f>
-        <v>3.3790664780763793</v>
+        <v>3.3803191489361701</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -24673,7 +25259,7 @@
       </c>
       <c r="R3" s="4">
         <f>N7/R2</f>
-        <v>76.944328170782754</v>
+        <v>76.915814319433522</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -24800,7 +25386,7 @@
       </c>
       <c r="R7" s="4">
         <f>(R4/100)*R3</f>
-        <v>36.933277521975718</v>
+        <v>36.91959087332809</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -24818,7 +25404,7 @@
       </c>
       <c r="R8" s="4">
         <f>(R5/100)*R3</f>
-        <v>40.011050648807036</v>
+        <v>39.996223446105432</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -24893,7 +25479,7 @@
       </c>
       <c r="R13" s="26">
         <f>R7*R10</f>
-        <v>14.40397823357053</v>
+        <v>14.398640440597955</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -24911,7 +25497,7 @@
       </c>
       <c r="R14" s="26">
         <f>R8*R11</f>
-        <v>4.8013260778568441</v>
+        <v>4.7995468135326513</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24941,7 +25527,7 @@
       </c>
       <c r="R15" s="41">
         <f>R13+R14</f>
-        <v>19.205304311427376</v>
+        <v>19.198187254130605</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -24968,7 +25554,7 @@
       <c r="Q17" s="29"/>
       <c r="R17" s="40">
         <f>N15-R15</f>
-        <v>7.6912474127105526</v>
+        <v>7.6983644700073235</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -25202,7 +25788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A61466-5BD4-413D-A044-08A9C493B98E}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AX68"/>
@@ -25482,10 +26068,10 @@
       </c>
       <c r="W3" s="274"/>
       <c r="X3" s="274"/>
-      <c r="Y3" s="256" t="s">
+      <c r="Y3" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="258"/>
+      <c r="Z3" s="248"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="275" t="s">
         <v>13</v>
@@ -36454,17 +37040,17 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
@@ -36475,7 +37061,7 @@
     <col min="24" max="24" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>310</v>
       </c>
@@ -36546,66 +37132,66 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="142">
         <f>'Charge Stats'!AJ2</f>
         <v>0</v>
       </c>
       <c r="C2" s="23">
         <f>'Charge Stats'!AH2</f>
-        <v>1872.9760000000001</v>
+        <v>1992.9280000000001</v>
       </c>
       <c r="D2" s="23">
         <f>'Charge Stats'!AI2</f>
-        <v>764.48</v>
+        <v>813.44</v>
       </c>
       <c r="E2" s="23">
         <f>'Charge Stats'!AK2</f>
-        <v>1.9112</v>
+        <v>2.0335999999999999</v>
       </c>
       <c r="F2" s="23">
         <f>'Charge Stats'!AL2</f>
-        <v>0.9556</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="G2" s="23">
         <f>'Charge Stats'!AM2</f>
-        <v>0.19112000000000007</v>
+        <v>0.20336000000000007</v>
       </c>
       <c r="H2" s="23">
         <f>'Charge Stats'!AN2</f>
-        <v>9.5560000000000034E-2</v>
+        <v>0.10168000000000003</v>
       </c>
       <c r="I2" s="23">
         <f>'Charge Stats'!AO2</f>
-        <v>0.38224000000000014</v>
+        <v>0.40672000000000014</v>
       </c>
       <c r="J2" s="23">
         <f>'Charge Stats'!AP2</f>
-        <v>2412.2840000000001</v>
+        <v>2565.8240000000005</v>
       </c>
       <c r="K2" s="23">
         <f>'Charge Stats'!AS2</f>
-        <v>11337.734799999997</v>
+        <v>12059.372799999997</v>
       </c>
       <c r="L2" s="23">
         <f>'Charge Stats'!AQ2</f>
-        <v>282.23722800000002</v>
+        <v>300.20140799999996</v>
       </c>
       <c r="M2" s="23">
         <f>'Charge Stats'!AR2</f>
-        <v>347.36889600000001</v>
+        <v>369.478656</v>
       </c>
       <c r="N2" s="23">
         <f>'Charge Stats'!AT2</f>
-        <v>0.20263185599999997</v>
+        <v>0.21552921599999994</v>
       </c>
       <c r="O2" s="23">
         <f>'Charge Stats'!AU2</f>
-        <v>0.24122840000000001</v>
+        <v>0.25658240000000004</v>
       </c>
       <c r="P2" s="23">
         <f>'Charge Stats'!AV2</f>
-        <v>1.206142E-2</v>
+        <v>1.2829119999999998E-2</v>
       </c>
       <c r="Q2" s="142">
         <f>'Charge Stats'!AW2</f>
@@ -36617,19 +37203,19 @@
       </c>
       <c r="S2" s="23">
         <f>C2</f>
-        <v>1872.9760000000001</v>
+        <v>1992.9280000000001</v>
       </c>
       <c r="T2" s="23">
         <f>L2</f>
-        <v>282.23722800000002</v>
+        <v>300.20140799999996</v>
       </c>
       <c r="U2" s="148">
         <f>D2</f>
-        <v>764.48</v>
+        <v>813.44</v>
       </c>
       <c r="V2" s="23">
         <f>M2</f>
-        <v>347.36889600000001</v>
+        <v>369.478656</v>
       </c>
       <c r="W2" s="142">
         <f>B2</f>
@@ -36637,10 +37223,10 @@
       </c>
       <c r="X2" s="158">
         <f>K2</f>
-        <v>11337.734799999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>12059.372799999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3" s="23">
         <f>'Charge Stats'!AJ3</f>
         <v>0</v>
@@ -36710,7 +37296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="141" t="str">
         <f>'Charge Stats'!AJ4</f>
         <v xml:space="preserve">**Nitrogen**       N₂              </v>
@@ -36780,76 +37366,140 @@
         <v>Sulfur dioxide (SO₂)</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H5" t="str">
+    <row r="5" spans="1:30" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="280"/>
+      <c r="L5" s="280"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="280"/>
+      <c r="O5" s="280"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="280"/>
+      <c r="R5" s="280"/>
+      <c r="S5" s="279"/>
+      <c r="T5" s="279"/>
+      <c r="U5" s="279"/>
+      <c r="V5" s="279"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="281" t="str">
         <f>"Emissions from "&amp;Total_KWs&amp;" KWh at Electric Power Plant vs. "&amp;Total_GallonsGas&amp;" Gallons of Gas to go "&amp;'Charging Tracker Old'!C2&amp;" Miles"</f>
-        <v>Emissions from 707 KWh at Electric Power Plant vs. 95.56 Gallons of Gas to go 1751 Miles</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
+        <v>Emissions from 752 KWh at Electric Power Plant vs. 101.68 Gallons of Gas to go 1751 Miles</v>
+      </c>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="281" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="158"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:30" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="278"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -36877,8 +37527,11 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -36906,8 +37559,11 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -36935,8 +37591,11 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -36964,8 +37623,11 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -36993,8 +37655,11 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -37022,8 +37687,11 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -37051,8 +37719,11 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -37080,8 +37751,11 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -37109,8 +37783,11 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -37138,8 +37815,11 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -37167,8 +37847,11 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -37196,8 +37879,11 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -37225,8 +37911,11 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -37254,8 +37943,11 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -37283,8 +37975,11 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -37312,8 +38007,11 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -37341,8 +38039,11 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -37370,8 +38071,11 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -37399,8 +38103,11 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -37428,8 +38135,11 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -37457,8 +38167,11 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -37486,8 +38199,11 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -37515,8 +38231,11 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -37544,8 +38263,11 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -37567,8 +38289,17 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -37590,8 +38321,17 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -37613,8 +38353,17 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -37636,8 +38385,17 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -37659,8 +38417,17 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -37682,8 +38449,17 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -37705,8 +38481,17 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -37728,8 +38513,17 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -37751,8 +38545,17 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -37774,8 +38577,17 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -37797,8 +38609,17 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -37820,8 +38641,213 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="J7:R7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -37829,13 +38855,2102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993EC9F7-F7FA-46FC-9C66-CA1EE1985B25}">
+  <dimension ref="A2:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="249" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="221" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="221" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="221" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="221" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="221" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="221" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="221" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="221" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="221" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="221" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="221"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="223">
+        <f t="shared" ref="C4:I4" si="0">SUM(C5:C6000)</f>
+        <v>143</v>
+      </c>
+      <c r="D4" s="228">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="E4" s="228">
+        <f t="shared" si="0"/>
+        <v>2542</v>
+      </c>
+      <c r="F4" s="222">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.64941087539623</v>
+      </c>
+      <c r="G4" s="222">
+        <f t="shared" si="0"/>
+        <v>274.536</v>
+      </c>
+      <c r="H4" s="222">
+        <f t="shared" ca="1" si="0"/>
+        <v>141.88658912460377</v>
+      </c>
+      <c r="I4" s="222">
+        <f t="shared" si="0"/>
+        <v>101.67999999999999</v>
+      </c>
+      <c r="J4" s="221"/>
+      <c r="K4" s="229">
+        <f ca="1">SUM(K5:K6000)</f>
+        <v>84.46941087539625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="213">
+        <v>45870</v>
+      </c>
+      <c r="B5" s="213">
+        <f t="shared" ref="B5:B22" si="1">IF(ISBLANK(A6),A5,A6-1)</f>
+        <v>45900</v>
+      </c>
+      <c r="C5" s="216">
+        <f t="shared" ref="C5:C24" si="2">SUMIFS(ChargeStats_SuperChargerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="217">
+        <f t="shared" ref="D5:D24" si="3">SUMIFS(ChargeStats_HomeKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="181">
+        <f t="shared" ref="E5:E24" si="4">SUMIFS(ChargeStats_MilesDriven_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="214">
+        <f t="shared" ref="F5:F24" ca="1" si="5">SUMIFS(ChargeStats_TotalChargeCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="214">
+        <f t="shared" ref="G5:G24" si="6">SUMIFS(ChargeStats_EstGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="214">
+        <f t="shared" ref="H5:H24" ca="1" si="7">SUMIFS(ChargeStats_ChargeGasCostDifference_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="216">
+        <f t="shared" ref="I5:I24" si="8">SUMIFS(ChargeStats_EstGallonsOfGas_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="217">
+        <f t="shared" ref="J5:J24" si="9">IFERROR(AVERAGEIFS(ChargeStats_MilesPerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="215">
+        <f t="shared" ref="K5:K24" ca="1" si="10">SUMIFS(ChargeStats_ChargeCostHome_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="218"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="213">
+        <v>45901</v>
+      </c>
+      <c r="B6" s="213">
+        <f t="shared" si="1"/>
+        <v>45930</v>
+      </c>
+      <c r="C6" s="217">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="D6" s="217">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="E6" s="181">
+        <f t="shared" si="4"/>
+        <v>966</v>
+      </c>
+      <c r="F6" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>65.507059253840524</v>
+      </c>
+      <c r="G6" s="215">
+        <f t="shared" si="6"/>
+        <v>104.328</v>
+      </c>
+      <c r="H6" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>38.820940746159472</v>
+      </c>
+      <c r="I6" s="217">
+        <f t="shared" si="8"/>
+        <v>38.64</v>
+      </c>
+      <c r="J6" s="217">
+        <f t="shared" si="9"/>
+        <v>1.6832631766548081</v>
+      </c>
+      <c r="K6" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>24.527059253840527</v>
+      </c>
+      <c r="L6" s="218"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="213">
+        <v>45931</v>
+      </c>
+      <c r="B7" s="213">
+        <f t="shared" si="1"/>
+        <v>45961</v>
+      </c>
+      <c r="C7" s="217">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="217">
+        <f t="shared" si="3"/>
+        <v>265</v>
+      </c>
+      <c r="E7" s="181">
+        <f t="shared" si="4"/>
+        <v>978</v>
+      </c>
+      <c r="F7" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>44.038803234458946</v>
+      </c>
+      <c r="G7" s="215">
+        <f t="shared" si="6"/>
+        <v>105.62400000000001</v>
+      </c>
+      <c r="H7" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>61.585196765541056</v>
+      </c>
+      <c r="I7" s="217">
+        <f t="shared" si="8"/>
+        <v>39.119999999999997</v>
+      </c>
+      <c r="J7" s="217">
+        <f t="shared" si="9"/>
+        <v>1.7667287230816642</v>
+      </c>
+      <c r="K7" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>36.83880323445895</v>
+      </c>
+      <c r="L7" s="218"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="213">
+        <v>45962</v>
+      </c>
+      <c r="B8" s="213">
+        <f t="shared" si="1"/>
+        <v>45991</v>
+      </c>
+      <c r="C8" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="217">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="E8" s="181">
+        <f t="shared" si="4"/>
+        <v>598</v>
+      </c>
+      <c r="F8" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.103548387096776</v>
+      </c>
+      <c r="G8" s="215">
+        <f t="shared" si="6"/>
+        <v>64.584000000000003</v>
+      </c>
+      <c r="H8" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>41.480451612903231</v>
+      </c>
+      <c r="I8" s="217">
+        <f t="shared" si="8"/>
+        <v>23.92</v>
+      </c>
+      <c r="J8" s="217">
+        <f t="shared" si="9"/>
+        <v>1.4003139857936642</v>
+      </c>
+      <c r="K8" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>23.103548387096776</v>
+      </c>
+      <c r="L8" s="218"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="213">
+        <v>45992</v>
+      </c>
+      <c r="B9" s="213">
+        <f t="shared" si="1"/>
+        <v>46022</v>
+      </c>
+      <c r="C9" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="218"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="213">
+        <v>46023</v>
+      </c>
+      <c r="B10" s="213">
+        <f t="shared" si="1"/>
+        <v>46053</v>
+      </c>
+      <c r="C10" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="218"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="213">
+        <v>46054</v>
+      </c>
+      <c r="B11" s="213">
+        <f t="shared" si="1"/>
+        <v>46081</v>
+      </c>
+      <c r="C11" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="218"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="213">
+        <v>46082</v>
+      </c>
+      <c r="B12" s="213">
+        <f t="shared" si="1"/>
+        <v>46112</v>
+      </c>
+      <c r="C12" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="218"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="213">
+        <v>46113</v>
+      </c>
+      <c r="B13" s="213">
+        <f t="shared" si="1"/>
+        <v>46142</v>
+      </c>
+      <c r="C13" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="218"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="213">
+        <v>46143</v>
+      </c>
+      <c r="B14" s="213">
+        <f t="shared" si="1"/>
+        <v>46173</v>
+      </c>
+      <c r="C14" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="218"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="213">
+        <v>46174</v>
+      </c>
+      <c r="B15" s="213">
+        <f t="shared" si="1"/>
+        <v>46203</v>
+      </c>
+      <c r="C15" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="218"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="213">
+        <v>46204</v>
+      </c>
+      <c r="B16" s="213">
+        <f t="shared" si="1"/>
+        <v>46234</v>
+      </c>
+      <c r="C16" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="218"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="213">
+        <v>46235</v>
+      </c>
+      <c r="B17" s="213">
+        <f t="shared" si="1"/>
+        <v>46265</v>
+      </c>
+      <c r="C17" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="218"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="213">
+        <v>46266</v>
+      </c>
+      <c r="B18" s="213">
+        <f t="shared" si="1"/>
+        <v>46295</v>
+      </c>
+      <c r="C18" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="218"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="213">
+        <v>46296</v>
+      </c>
+      <c r="B19" s="213">
+        <f t="shared" si="1"/>
+        <v>46326</v>
+      </c>
+      <c r="C19" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="218"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="213">
+        <v>46327</v>
+      </c>
+      <c r="B20" s="213">
+        <f t="shared" si="1"/>
+        <v>46356</v>
+      </c>
+      <c r="C20" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="218"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="213">
+        <v>46357</v>
+      </c>
+      <c r="B21" s="213">
+        <f t="shared" si="1"/>
+        <v>46387</v>
+      </c>
+      <c r="C21" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="218"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="213">
+        <v>46388</v>
+      </c>
+      <c r="B22" s="213">
+        <f t="shared" si="1"/>
+        <v>46418</v>
+      </c>
+      <c r="C22" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="218"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="213">
+        <v>46419</v>
+      </c>
+      <c r="B23" s="213">
+        <f>IF(ISBLANK(A24),A23,A24-1)</f>
+        <v>46446</v>
+      </c>
+      <c r="C23" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="218"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="213">
+        <v>46447</v>
+      </c>
+      <c r="B24" s="213">
+        <f>IF(ISBLANK(A25),A24,A25-1)</f>
+        <v>46447</v>
+      </c>
+      <c r="C24" s="217">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="218"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCD7AFF-82C3-4876-A866-2DFC7CDD5A6D}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="211" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="211"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="250" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="219" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="219" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="219" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="219" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="219" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="219" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" s="219" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="219" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="219"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="225">
+        <f t="shared" ref="C4:I4" si="0">SUM(C5:C6000)</f>
+        <v>143</v>
+      </c>
+      <c r="D4" s="225">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="E4" s="225">
+        <f t="shared" si="0"/>
+        <v>2542</v>
+      </c>
+      <c r="F4" s="224">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.64941087539626</v>
+      </c>
+      <c r="G4" s="224">
+        <f t="shared" si="0"/>
+        <v>274.536</v>
+      </c>
+      <c r="H4" s="224">
+        <f t="shared" ca="1" si="0"/>
+        <v>141.8865891246038</v>
+      </c>
+      <c r="I4" s="224">
+        <f t="shared" si="0"/>
+        <v>101.67999999999999</v>
+      </c>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227">
+        <f ca="1">SUM(K5:K6000)</f>
+        <v>84.46941087539625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="212">
+        <v>45900</v>
+      </c>
+      <c r="B5" s="212">
+        <f t="shared" ref="B5:B22" si="1">IF(ISBLANK(A6),A5,A6-1)</f>
+        <v>45906</v>
+      </c>
+      <c r="C5" s="220">
+        <f t="shared" ref="C5:C24" si="2">SUMIFS(ChargeStats_SuperChargerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>49</v>
+      </c>
+      <c r="D5" s="220">
+        <f t="shared" ref="D5:D24" si="3">SUMIFS(ChargeStats_HomeKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="181">
+        <f t="shared" ref="E5:E24" si="4">SUMIFS(ChargeStats_MilesDriven_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>130</v>
+      </c>
+      <c r="F5" s="215">
+        <f t="shared" ref="F5:F24" ca="1" si="5">SUMIFS(ChargeStats_TotalChargeCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>16.66</v>
+      </c>
+      <c r="G5" s="215">
+        <f t="shared" ref="G5:G24" si="6">SUMIFS(ChargeStats_EstGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="H5" s="215">
+        <f t="shared" ref="H5:H24" ca="1" si="7">SUMIFS(ChargeStats_ChargeGasCostDifference_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>-2.6199999999999992</v>
+      </c>
+      <c r="I5" s="217">
+        <f t="shared" ref="I5:I24" si="8">SUMIFS(ChargeStats_EstGallonsOfGas_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>5.2</v>
+      </c>
+      <c r="J5" s="217">
+        <f t="shared" ref="J5:J24" si="9">IFERROR(AVERAGEIFS(ChargeStats_MilesPerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5),0)</f>
+        <v>0.3790087463556851</v>
+      </c>
+      <c r="K5" s="215">
+        <f t="shared" ref="K5:K24" ca="1" si="10">SUMIFS(ChargeStats_ChargeCostHome_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="218"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="212">
+        <f>A5+7</f>
+        <v>45907</v>
+      </c>
+      <c r="B6" s="212">
+        <f t="shared" si="1"/>
+        <v>45913</v>
+      </c>
+      <c r="C6" s="220">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D6" s="220">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="181">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="F6" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>26.238317483540602</v>
+      </c>
+      <c r="G6" s="215">
+        <f t="shared" si="6"/>
+        <v>31.86</v>
+      </c>
+      <c r="H6" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.6216825164593995</v>
+      </c>
+      <c r="I6" s="217">
+        <f t="shared" si="8"/>
+        <v>11.8</v>
+      </c>
+      <c r="J6" s="217">
+        <f t="shared" si="9"/>
+        <v>1.8295739348370927</v>
+      </c>
+      <c r="K6" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9183174835405998</v>
+      </c>
+      <c r="L6" s="218"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="212">
+        <f t="shared" ref="A7:A24" si="11">A6+7</f>
+        <v>45914</v>
+      </c>
+      <c r="B7" s="212">
+        <f t="shared" si="1"/>
+        <v>45920</v>
+      </c>
+      <c r="C7" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="220">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E7" s="181">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="F7" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6324286759326991</v>
+      </c>
+      <c r="G7" s="215">
+        <f t="shared" si="6"/>
+        <v>27.108000000000004</v>
+      </c>
+      <c r="H7" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>18.475571324067303</v>
+      </c>
+      <c r="I7" s="217">
+        <f t="shared" si="8"/>
+        <v>10.040000000000001</v>
+      </c>
+      <c r="J7" s="217">
+        <f t="shared" si="9"/>
+        <v>2.6672553636839349</v>
+      </c>
+      <c r="K7" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.6324286759326991</v>
+      </c>
+      <c r="L7" s="218"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="212">
+        <f t="shared" si="11"/>
+        <v>45921</v>
+      </c>
+      <c r="B8" s="212">
+        <f t="shared" si="1"/>
+        <v>45927</v>
+      </c>
+      <c r="C8" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="220">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E8" s="181">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="F8" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7286100950987553</v>
+      </c>
+      <c r="G8" s="215">
+        <f t="shared" si="6"/>
+        <v>21.6</v>
+      </c>
+      <c r="H8" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>11.871389904901246</v>
+      </c>
+      <c r="I8" s="217">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="217">
+        <f t="shared" si="9"/>
+        <v>1.6976190476190476</v>
+      </c>
+      <c r="K8" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.7286100950987553</v>
+      </c>
+      <c r="L8" s="218"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="212">
+        <f t="shared" si="11"/>
+        <v>45928</v>
+      </c>
+      <c r="B9" s="212">
+        <f t="shared" si="1"/>
+        <v>45934</v>
+      </c>
+      <c r="C9" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="220">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E9" s="181">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="F9" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.7694513533284564</v>
+      </c>
+      <c r="G9" s="215">
+        <f t="shared" si="6"/>
+        <v>14.904</v>
+      </c>
+      <c r="H9" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.1345486466715444</v>
+      </c>
+      <c r="I9" s="217">
+        <f t="shared" si="8"/>
+        <v>5.52</v>
+      </c>
+      <c r="J9" s="217">
+        <f t="shared" si="9"/>
+        <v>1.1352369450195536</v>
+      </c>
+      <c r="K9" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.7694513533284564</v>
+      </c>
+      <c r="L9" s="218"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="212">
+        <f t="shared" si="11"/>
+        <v>45935</v>
+      </c>
+      <c r="B10" s="212">
+        <f t="shared" si="1"/>
+        <v>45941</v>
+      </c>
+      <c r="C10" s="220">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="220">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E10" s="181">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="F10" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.054065633087131</v>
+      </c>
+      <c r="G10" s="215">
+        <f t="shared" si="6"/>
+        <v>52.38</v>
+      </c>
+      <c r="H10" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>32.325934366912868</v>
+      </c>
+      <c r="I10" s="217">
+        <f t="shared" si="8"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J10" s="217">
+        <f t="shared" si="9"/>
+        <v>2.8568194900781689</v>
+      </c>
+      <c r="K10" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.854065633087131</v>
+      </c>
+      <c r="L10" s="218"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="212">
+        <f t="shared" si="11"/>
+        <v>45942</v>
+      </c>
+      <c r="B11" s="212">
+        <f t="shared" si="1"/>
+        <v>45948</v>
+      </c>
+      <c r="C11" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="220">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="181">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="F11" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.7408817204301066</v>
+      </c>
+      <c r="G11" s="215">
+        <f t="shared" si="6"/>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="H11" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>11.107118279569892</v>
+      </c>
+      <c r="I11" s="217">
+        <f t="shared" si="8"/>
+        <v>6.2399999999999993</v>
+      </c>
+      <c r="J11" s="217">
+        <f t="shared" si="9"/>
+        <v>1.4819714447043639</v>
+      </c>
+      <c r="K11" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.7408817204301066</v>
+      </c>
+      <c r="L11" s="218"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="212">
+        <f t="shared" si="11"/>
+        <v>45949</v>
+      </c>
+      <c r="B12" s="212">
+        <f t="shared" si="1"/>
+        <v>45955</v>
+      </c>
+      <c r="C12" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="220">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E12" s="181">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="F12" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6813333333333329</v>
+      </c>
+      <c r="G12" s="215">
+        <f t="shared" si="6"/>
+        <v>26.676000000000002</v>
+      </c>
+      <c r="H12" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.994666666666667</v>
+      </c>
+      <c r="I12" s="217">
+        <f t="shared" si="8"/>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J12" s="217">
+        <f t="shared" si="9"/>
+        <v>2.8239177489177485</v>
+      </c>
+      <c r="K12" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.6813333333333329</v>
+      </c>
+      <c r="L12" s="218"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="212">
+        <f t="shared" si="11"/>
+        <v>45956</v>
+      </c>
+      <c r="B13" s="212">
+        <f t="shared" si="1"/>
+        <v>45962</v>
+      </c>
+      <c r="C13" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="220">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="181">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="F13" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.5214623655913968</v>
+      </c>
+      <c r="G13" s="215">
+        <f t="shared" si="6"/>
+        <v>19.116000000000003</v>
+      </c>
+      <c r="H13" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.5945376344086064</v>
+      </c>
+      <c r="I13" s="217">
+        <f t="shared" si="8"/>
+        <v>7.08</v>
+      </c>
+      <c r="J13" s="217">
+        <f t="shared" si="9"/>
+        <v>0.76934523809523814</v>
+      </c>
+      <c r="K13" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.5214623655913968</v>
+      </c>
+      <c r="L13" s="218"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="212">
+        <f t="shared" si="11"/>
+        <v>45963</v>
+      </c>
+      <c r="B14" s="212">
+        <f t="shared" si="1"/>
+        <v>45969</v>
+      </c>
+      <c r="C14" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="220">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E14" s="181">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="F14" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2811182795698928</v>
+      </c>
+      <c r="G14" s="215">
+        <f t="shared" si="6"/>
+        <v>17.064</v>
+      </c>
+      <c r="H14" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7828817204301064</v>
+      </c>
+      <c r="I14" s="217">
+        <f t="shared" si="8"/>
+        <v>6.32</v>
+      </c>
+      <c r="J14" s="217">
+        <f t="shared" si="9"/>
+        <v>1.2976190476190474</v>
+      </c>
+      <c r="K14" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.2811182795698928</v>
+      </c>
+      <c r="L14" s="218"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="212">
+        <f t="shared" si="11"/>
+        <v>45970</v>
+      </c>
+      <c r="B15" s="212">
+        <f t="shared" si="1"/>
+        <v>45976</v>
+      </c>
+      <c r="C15" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="220">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E15" s="181">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="F15" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.341741935483871</v>
+      </c>
+      <c r="G15" s="215">
+        <f t="shared" si="6"/>
+        <v>32.94</v>
+      </c>
+      <c r="H15" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>21.598258064516131</v>
+      </c>
+      <c r="I15" s="217">
+        <f t="shared" si="8"/>
+        <v>12.2</v>
+      </c>
+      <c r="J15" s="217">
+        <f t="shared" si="9"/>
+        <v>2.7007340485601357</v>
+      </c>
+      <c r="K15" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>11.341741935483871</v>
+      </c>
+      <c r="L15" s="218"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="212">
+        <f t="shared" si="11"/>
+        <v>45977</v>
+      </c>
+      <c r="B16" s="212">
+        <f t="shared" si="1"/>
+        <v>45983</v>
+      </c>
+      <c r="C16" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="218"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="212">
+        <f t="shared" si="11"/>
+        <v>45984</v>
+      </c>
+      <c r="B17" s="212">
+        <f t="shared" si="1"/>
+        <v>45990</v>
+      </c>
+      <c r="C17" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="215">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="215">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="215">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="218"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="212">
+        <f t="shared" si="11"/>
+        <v>45991</v>
+      </c>
+      <c r="B18" s="212">
+        <f t="shared" si="1"/>
+        <v>45997</v>
+      </c>
+      <c r="C18" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="218"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="212">
+        <f t="shared" si="11"/>
+        <v>45998</v>
+      </c>
+      <c r="B19" s="212">
+        <f t="shared" si="1"/>
+        <v>46004</v>
+      </c>
+      <c r="C19" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="218"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="212">
+        <f t="shared" si="11"/>
+        <v>46005</v>
+      </c>
+      <c r="B20" s="212">
+        <f t="shared" si="1"/>
+        <v>46011</v>
+      </c>
+      <c r="C20" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="218"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="212">
+        <f t="shared" si="11"/>
+        <v>46012</v>
+      </c>
+      <c r="B21" s="212">
+        <f t="shared" si="1"/>
+        <v>46018</v>
+      </c>
+      <c r="C21" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="218"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="212">
+        <f t="shared" si="11"/>
+        <v>46019</v>
+      </c>
+      <c r="B22" s="212">
+        <f t="shared" si="1"/>
+        <v>46025</v>
+      </c>
+      <c r="C22" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="218"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="212">
+        <f t="shared" si="11"/>
+        <v>46026</v>
+      </c>
+      <c r="B23" s="212">
+        <f>IF(ISBLANK(A24),A23,A24-1)</f>
+        <v>46032</v>
+      </c>
+      <c r="C23" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="218"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="212">
+        <f t="shared" si="11"/>
+        <v>46033</v>
+      </c>
+      <c r="B24" s="212">
+        <f>IF(ISBLANK(A25),A24,A25-1)</f>
+        <v>46033</v>
+      </c>
+      <c r="C24" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="217">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="218"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63585E22-C64A-4A48-B537-F03A3779904C}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AX141"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W82" sqref="W82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37879,11 +40994,11 @@
       <c r="A2" s="195"/>
       <c r="B2" s="207">
         <f>MAX(B5:B6000)</f>
-        <v>2389</v>
+        <v>2542</v>
       </c>
       <c r="C2" s="207">
         <f>SUM(C5:C6000)</f>
-        <v>2389</v>
+        <v>2542</v>
       </c>
       <c r="D2" s="196">
         <f>SUM(D5:D6000)</f>
@@ -37895,108 +41010,108 @@
       </c>
       <c r="F2" s="196">
         <f>SUM(F5:F6000)</f>
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="G2" s="196">
         <f>SUM(G5:G6000)</f>
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="H2" s="196">
         <f t="shared" ref="H2" si="0">D2+G2</f>
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="I2" s="196"/>
       <c r="J2" s="196"/>
       <c r="K2" s="196">
         <f>SUM(K5:K6000)</f>
-        <v>908</v>
+        <v>966</v>
       </c>
       <c r="L2" s="196"/>
       <c r="M2" s="196"/>
       <c r="N2" s="196">
         <f>SUM(N5:N6000)</f>
-        <v>191.45</v>
+        <v>198.7</v>
       </c>
       <c r="O2" s="196"/>
       <c r="P2" s="197">
         <f>C2/H2</f>
-        <v>3.3790664780763793</v>
+        <v>3.3803191489361701</v>
       </c>
       <c r="Q2" s="197">
         <f>AVERAGEIF(Q5:Q6000,"&gt;0")</f>
-        <v>0.39052631578947383</v>
-      </c>
-      <c r="R2" s="236">
+        <v>0.39121951219512208</v>
+      </c>
+      <c r="R2" s="235">
         <f ca="1">AVERAGEIF(R5:R6000,"&gt;0")</f>
         <v>0.13865278853418289</v>
       </c>
       <c r="S2" s="198">
         <f>D2*Q2</f>
-        <v>55.845263157894756</v>
+        <v>55.944390243902454</v>
       </c>
       <c r="T2" s="198">
         <f ca="1">SUM(T5:T6000)</f>
-        <v>78.168443133460769</v>
+        <v>84.46941087539625</v>
       </c>
       <c r="U2" s="198">
         <f ca="1">SUM(U5:U6000)</f>
-        <v>126.34844313346078</v>
+        <v>132.64941087539623</v>
       </c>
       <c r="V2" s="199">
         <f>AVERAGEIF(V5:V6000,"&gt;0")</f>
-        <v>2.7000000000000015</v>
+        <v>2.700000000000002</v>
       </c>
       <c r="W2" s="199">
         <f>C2/MPG_Kia</f>
-        <v>95.56</v>
+        <v>101.68</v>
       </c>
       <c r="X2" s="199">
         <f>SUM(X5:X6000)</f>
-        <v>258.012</v>
+        <v>274.536</v>
       </c>
       <c r="Y2" s="200">
         <f ca="1">X2-U2</f>
-        <v>131.66355686653924</v>
+        <v>141.88658912460377</v>
       </c>
       <c r="Z2" s="201">
         <f ca="1">(X2-U2)/X2</f>
-        <v>0.51030012893407761</v>
+        <v>0.51682325496329728</v>
       </c>
       <c r="AA2" s="200">
         <f ca="1">SUM(AA5:AA6000)</f>
-        <v>144.6815568665393</v>
+        <v>156.3805891246038</v>
       </c>
       <c r="AB2" s="202">
         <f>SUM(AB5:AB6000)</f>
-        <v>271.03000000000003</v>
+        <v>289.02999999999997</v>
       </c>
       <c r="AC2" s="202">
         <f t="shared" ref="AC2:AX2" si="1">SUM(AC5:AC6000)</f>
-        <v>258.012</v>
+        <v>274.536</v>
       </c>
       <c r="AD2" s="202">
         <f t="shared" ca="1" si="1"/>
-        <v>97.766442828966504</v>
+        <v>104.06741057090198</v>
       </c>
       <c r="AE2" s="202">
         <f t="shared" si="1"/>
-        <v>-13.018000000000006</v>
+        <v>-14.494000000000009</v>
       </c>
       <c r="AF2" s="202">
         <f t="shared" ca="1" si="1"/>
-        <v>160.24555717103348</v>
+        <v>170.46858942909799</v>
       </c>
       <c r="AG2" s="202">
         <f t="shared" ca="1" si="1"/>
-        <v>173.26355717103354</v>
+        <v>184.96258942909805</v>
       </c>
       <c r="AH2" s="203">
         <f t="shared" si="1"/>
-        <v>1872.9760000000001</v>
+        <v>1992.9280000000001</v>
       </c>
       <c r="AI2" s="203">
         <f t="shared" si="1"/>
-        <v>764.48</v>
+        <v>813.44</v>
       </c>
       <c r="AJ2" s="203">
         <f t="shared" si="1"/>
@@ -38004,51 +41119,51 @@
       </c>
       <c r="AK2" s="203">
         <f t="shared" si="1"/>
-        <v>1.9112</v>
+        <v>2.0335999999999999</v>
       </c>
       <c r="AL2" s="203">
         <f t="shared" si="1"/>
-        <v>0.9556</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="AM2" s="203">
         <f t="shared" si="1"/>
-        <v>0.19112000000000007</v>
+        <v>0.20336000000000007</v>
       </c>
       <c r="AN2" s="203">
         <f t="shared" si="1"/>
-        <v>9.5560000000000034E-2</v>
+        <v>0.10168000000000003</v>
       </c>
       <c r="AO2" s="203">
         <f t="shared" si="1"/>
-        <v>0.38224000000000014</v>
+        <v>0.40672000000000014</v>
       </c>
       <c r="AP2" s="204">
         <f t="shared" si="1"/>
-        <v>2412.2840000000001</v>
+        <v>2565.8240000000005</v>
       </c>
       <c r="AQ2" s="204">
         <f t="shared" si="1"/>
-        <v>282.23722800000002</v>
+        <v>300.20140799999996</v>
       </c>
       <c r="AR2" s="204">
         <f t="shared" si="1"/>
-        <v>347.36889600000001</v>
+        <v>369.478656</v>
       </c>
       <c r="AS2" s="204">
         <f t="shared" si="1"/>
-        <v>11337.734799999997</v>
+        <v>12059.372799999997</v>
       </c>
       <c r="AT2" s="204">
         <f t="shared" si="1"/>
-        <v>0.20263185599999997</v>
+        <v>0.21552921599999994</v>
       </c>
       <c r="AU2" s="204">
         <f t="shared" si="1"/>
-        <v>0.24122840000000001</v>
+        <v>0.25658240000000004</v>
       </c>
       <c r="AV2" s="204">
         <f t="shared" si="1"/>
-        <v>1.206142E-2</v>
+        <v>1.2829119999999998E-2</v>
       </c>
       <c r="AW2" s="204">
         <f t="shared" si="1"/>
@@ -38063,71 +41178,71 @@
       <c r="A3" s="205" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="255" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="246" t="s">
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="247" t="s">
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="248" t="s">
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="249"/>
+      <c r="Z3" s="260"/>
       <c r="AA3" s="206"/>
-      <c r="AB3" s="240" t="s">
+      <c r="AB3" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="241" t="s">
+      <c r="AC3" s="251"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="251"/>
+      <c r="AF3" s="251"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252" t="s">
         <v>314</v>
       </c>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="241"/>
-      <c r="AK3" s="241"/>
-      <c r="AL3" s="241"/>
-      <c r="AM3" s="241"/>
-      <c r="AN3" s="241"/>
-      <c r="AO3" s="242"/>
-      <c r="AP3" s="243" t="s">
+      <c r="AI3" s="252"/>
+      <c r="AJ3" s="252"/>
+      <c r="AK3" s="252"/>
+      <c r="AL3" s="252"/>
+      <c r="AM3" s="252"/>
+      <c r="AN3" s="252"/>
+      <c r="AO3" s="253"/>
+      <c r="AP3" s="254" t="s">
         <v>315</v>
       </c>
-      <c r="AQ3" s="243"/>
-      <c r="AR3" s="243"/>
-      <c r="AS3" s="243"/>
-      <c r="AT3" s="243"/>
-      <c r="AU3" s="243"/>
-      <c r="AV3" s="243"/>
-      <c r="AW3" s="243"/>
-      <c r="AX3" s="243"/>
+      <c r="AQ3" s="254"/>
+      <c r="AR3" s="254"/>
+      <c r="AS3" s="254"/>
+      <c r="AT3" s="254"/>
+      <c r="AU3" s="254"/>
+      <c r="AV3" s="254"/>
+      <c r="AW3" s="254"/>
+      <c r="AX3" s="254"/>
     </row>
     <row r="4" spans="1:50" s="180" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="205" t="s">
@@ -38334,7 +41449,7 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="234" cm="1">
+      <c r="R5" s="233" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A5&gt;=FPLBillHistory_BillFromDate_Range)*(A5&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -38445,7 +41560,7 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="234" cm="1">
+      <c r="R6" s="233" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A6&gt;=FPLBillHistory_BillFromDate_Range)*(A6&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -38627,7 +41742,7 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="234" cm="1">
+      <c r="R7" s="233" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A7&gt;=FPLBillHistory_BillFromDate_Range)*(A7&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -38809,7 +41924,7 @@
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="234" cm="1">
+      <c r="R8" s="233" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A8&gt;=FPLBillHistory_BillFromDate_Range)*(A8&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -38991,7 +42106,7 @@
       <c r="Q9" s="6">
         <v>0</v>
       </c>
-      <c r="R9" s="234" cm="1">
+      <c r="R9" s="233" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A9&gt;=FPLBillHistory_BillFromDate_Range)*(A9&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -39176,7 +42291,7 @@
       <c r="Q10" s="6">
         <v>0.34</v>
       </c>
-      <c r="R10" s="234" cm="1">
+      <c r="R10" s="233" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A10&gt;=FPLBillHistory_BillFromDate_Range)*(A10&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -39358,7 +42473,7 @@
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="234" cm="1">
+      <c r="R11" s="233" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A11&gt;=FPLBillHistory_BillFromDate_Range)*(A11&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -39540,7 +42655,7 @@
       <c r="Q12" s="6">
         <v>0</v>
       </c>
-      <c r="R12" s="234" cm="1">
+      <c r="R12" s="233" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A12&gt;=FPLBillHistory_BillFromDate_Range)*(A12&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13709934735315446</v>
       </c>
@@ -39726,7 +42841,7 @@
       <c r="Q13" s="6">
         <v>0.34</v>
       </c>
-      <c r="R13" s="234" cm="1">
+      <c r="R13" s="233" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A13&gt;=FPLBillHistory_BillFromDate_Range)*(A13&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -39908,7 +43023,7 @@
       <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="234" cm="1">
+      <c r="R14" s="233" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A14&gt;=FPLBillHistory_BillFromDate_Range)*(A14&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -40090,7 +43205,7 @@
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="234" cm="1">
+      <c r="R15" s="233" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A15&gt;=FPLBillHistory_BillFromDate_Range)*(A15&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -40272,7 +43387,7 @@
       <c r="Q16" s="6">
         <v>0</v>
       </c>
-      <c r="R16" s="234" cm="1">
+      <c r="R16" s="233" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A16&gt;=FPLBillHistory_BillFromDate_Range)*(A16&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -40458,7 +43573,7 @@
       <c r="Q17" s="6">
         <v>0.39</v>
       </c>
-      <c r="R17" s="234" cm="1">
+      <c r="R17" s="233" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A17&gt;=FPLBillHistory_BillFromDate_Range)*(A17&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -40644,7 +43759,7 @@
       <c r="Q18" s="6">
         <v>0.3</v>
       </c>
-      <c r="R18" s="234" cm="1">
+      <c r="R18" s="233" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A18&gt;=FPLBillHistory_BillFromDate_Range)*(A18&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -40830,7 +43945,7 @@
       <c r="Q19" s="6">
         <v>0.39</v>
       </c>
-      <c r="R19" s="234" cm="1">
+      <c r="R19" s="233" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A19&gt;=FPLBillHistory_BillFromDate_Range)*(A19&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41012,7 +44127,7 @@
       <c r="Q20" s="6">
         <v>0</v>
       </c>
-      <c r="R20" s="234" cm="1">
+      <c r="R20" s="233" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A20&gt;=FPLBillHistory_BillFromDate_Range)*(A20&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41198,7 +44313,7 @@
       <c r="Q21" s="6">
         <v>0.39</v>
       </c>
-      <c r="R21" s="234" cm="1">
+      <c r="R21" s="233" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A21&gt;=FPLBillHistory_BillFromDate_Range)*(A21&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41384,7 +44499,7 @@
       <c r="Q22" s="6">
         <v>0.39</v>
       </c>
-      <c r="R22" s="234" cm="1">
+      <c r="R22" s="233" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A22&gt;=FPLBillHistory_BillFromDate_Range)*(A22&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41570,7 +44685,7 @@
       <c r="Q23" s="6">
         <v>0.39</v>
       </c>
-      <c r="R23" s="234" cm="1">
+      <c r="R23" s="233" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A23&gt;=FPLBillHistory_BillFromDate_Range)*(A23&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41756,7 +44871,7 @@
       <c r="Q24" s="6">
         <v>0.39</v>
       </c>
-      <c r="R24" s="234" cm="1">
+      <c r="R24" s="233" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A24&gt;=FPLBillHistory_BillFromDate_Range)*(A24&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -41942,7 +45057,7 @@
       <c r="Q25" s="6">
         <v>0.39</v>
       </c>
-      <c r="R25" s="234" cm="1">
+      <c r="R25" s="233" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A25&gt;=FPLBillHistory_BillFromDate_Range)*(A25&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -42128,7 +45243,7 @@
       <c r="Q26" s="6">
         <v>0.39</v>
       </c>
-      <c r="R26" s="234" cm="1">
+      <c r="R26" s="233" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A26&gt;=FPLBillHistory_BillFromDate_Range)*(A26&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -42314,7 +45429,7 @@
       <c r="Q27" s="6">
         <v>0.39</v>
       </c>
-      <c r="R27" s="234" cm="1">
+      <c r="R27" s="233" cm="1">
         <f t="array" aca="1" ref="R27" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A27&gt;=FPLBillHistory_BillFromDate_Range)*(A27&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -42496,7 +45611,7 @@
       <c r="Q28" s="6">
         <v>0</v>
       </c>
-      <c r="R28" s="234" cm="1">
+      <c r="R28" s="233" cm="1">
         <f t="array" aca="1" ref="R28" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A28&gt;=FPLBillHistory_BillFromDate_Range)*(A28&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -42682,7 +45797,7 @@
       <c r="Q29" s="6">
         <v>0.39</v>
       </c>
-      <c r="R29" s="234" cm="1">
+      <c r="R29" s="233" cm="1">
         <f t="array" aca="1" ref="R29" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A29&gt;=FPLBillHistory_BillFromDate_Range)*(A29&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -42864,7 +45979,7 @@
       <c r="Q30" s="6">
         <v>0</v>
       </c>
-      <c r="R30" s="234" cm="1">
+      <c r="R30" s="233" cm="1">
         <f t="array" aca="1" ref="R30" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A30&gt;=FPLBillHistory_BillFromDate_Range)*(A30&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43050,7 +46165,7 @@
       <c r="Q31" s="6">
         <v>0.39</v>
       </c>
-      <c r="R31" s="234" cm="1">
+      <c r="R31" s="233" cm="1">
         <f t="array" aca="1" ref="R31" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A31&gt;=FPLBillHistory_BillFromDate_Range)*(A31&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43232,7 +46347,7 @@
       <c r="Q32" s="6">
         <v>0</v>
       </c>
-      <c r="R32" s="234" cm="1">
+      <c r="R32" s="233" cm="1">
         <f t="array" aca="1" ref="R32" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A32&gt;=FPLBillHistory_BillFromDate_Range)*(A32&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43418,7 +46533,7 @@
       <c r="Q33" s="6">
         <v>0.39</v>
       </c>
-      <c r="R33" s="234" cm="1">
+      <c r="R33" s="233" cm="1">
         <f t="array" aca="1" ref="R33" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A33&gt;=FPLBillHistory_BillFromDate_Range)*(A33&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43604,7 +46719,7 @@
       <c r="Q34" s="6">
         <v>0.39</v>
       </c>
-      <c r="R34" s="234" cm="1">
+      <c r="R34" s="233" cm="1">
         <f t="array" aca="1" ref="R34" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A34&gt;=FPLBillHistory_BillFromDate_Range)*(A34&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43786,7 +46901,7 @@
       <c r="Q35" s="6">
         <v>0</v>
       </c>
-      <c r="R35" s="234" cm="1">
+      <c r="R35" s="233" cm="1">
         <f t="array" aca="1" ref="R35" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A35&gt;=FPLBillHistory_BillFromDate_Range)*(A35&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -43968,7 +47083,7 @@
       <c r="Q36" s="6">
         <v>0</v>
       </c>
-      <c r="R36" s="234" cm="1">
+      <c r="R36" s="233" cm="1">
         <f t="array" aca="1" ref="R36" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A36&gt;=FPLBillHistory_BillFromDate_Range)*(A36&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -44150,7 +47265,7 @@
       <c r="Q37" s="6">
         <v>0</v>
       </c>
-      <c r="R37" s="234" cm="1">
+      <c r="R37" s="233" cm="1">
         <f t="array" aca="1" ref="R37" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A37&gt;=FPLBillHistory_BillFromDate_Range)*(A37&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -44336,7 +47451,7 @@
       <c r="Q38" s="6">
         <v>0.39</v>
       </c>
-      <c r="R38" s="234" cm="1">
+      <c r="R38" s="233" cm="1">
         <f t="array" aca="1" ref="R38" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A38&gt;=FPLBillHistory_BillFromDate_Range)*(A38&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -44522,7 +47637,7 @@
       <c r="Q39" s="6">
         <v>0.4</v>
       </c>
-      <c r="R39" s="234" cm="1">
+      <c r="R39" s="233" cm="1">
         <f t="array" aca="1" ref="R39" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A39&gt;=FPLBillHistory_BillFromDate_Range)*(A39&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -44708,7 +47823,7 @@
       <c r="Q40" s="6">
         <v>0.4</v>
       </c>
-      <c r="R40" s="234" cm="1">
+      <c r="R40" s="233" cm="1">
         <f t="array" aca="1" ref="R40" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A40&gt;=FPLBillHistory_BillFromDate_Range)*(A40&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -44894,7 +48009,7 @@
       <c r="Q41" s="6">
         <v>0.4</v>
       </c>
-      <c r="R41" s="234" cm="1">
+      <c r="R41" s="233" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A41&gt;=FPLBillHistory_BillFromDate_Range)*(A41&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -45076,7 +48191,7 @@
       <c r="Q42" s="6">
         <v>0</v>
       </c>
-      <c r="R42" s="234" cm="1">
+      <c r="R42" s="233" cm="1">
         <f t="array" aca="1" ref="R42" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A42&gt;=FPLBillHistory_BillFromDate_Range)*(A42&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -45262,7 +48377,7 @@
       <c r="Q43" s="6">
         <v>0.4</v>
       </c>
-      <c r="R43" s="234" cm="1">
+      <c r="R43" s="233" cm="1">
         <f t="array" aca="1" ref="R43" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A43&gt;=FPLBillHistory_BillFromDate_Range)*(A43&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.13702267739575713</v>
       </c>
@@ -45448,7 +48563,7 @@
       <c r="Q44" s="6">
         <v>0.4</v>
       </c>
-      <c r="R44" s="234" cm="1">
+      <c r="R44" s="233" cm="1">
         <f t="array" aca="1" ref="R44" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A44&gt;=FPLBillHistory_BillFromDate_Range)*(A44&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -45634,7 +48749,7 @@
       <c r="Q45" s="6">
         <v>0.4</v>
       </c>
-      <c r="R45" s="234" cm="1">
+      <c r="R45" s="233" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A45&gt;=FPLBillHistory_BillFromDate_Range)*(A45&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -45820,7 +48935,7 @@
       <c r="Q46" s="6">
         <v>0</v>
       </c>
-      <c r="R46" s="234" cm="1">
+      <c r="R46" s="233" cm="1">
         <f t="array" aca="1" ref="R46" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A46&gt;=FPLBillHistory_BillFromDate_Range)*(A46&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46002,7 +49117,7 @@
       <c r="Q47" s="6">
         <v>0</v>
       </c>
-      <c r="R47" s="234" cm="1">
+      <c r="R47" s="233" cm="1">
         <f t="array" aca="1" ref="R47" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A47&gt;=FPLBillHistory_BillFromDate_Range)*(A47&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46184,7 +49299,7 @@
       <c r="Q48" s="6">
         <v>0</v>
       </c>
-      <c r="R48" s="234" cm="1">
+      <c r="R48" s="233" cm="1">
         <f t="array" aca="1" ref="R48" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A48&gt;=FPLBillHistory_BillFromDate_Range)*(A48&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46370,7 +49485,7 @@
       <c r="Q49" s="6">
         <v>0.4</v>
       </c>
-      <c r="R49" s="234" cm="1">
+      <c r="R49" s="233" cm="1">
         <f t="array" aca="1" ref="R49" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A49&gt;=FPLBillHistory_BillFromDate_Range)*(A49&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46552,7 +49667,7 @@
       <c r="Q50" s="6">
         <v>0</v>
       </c>
-      <c r="R50" s="234" cm="1">
+      <c r="R50" s="233" cm="1">
         <f t="array" aca="1" ref="R50" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A50&gt;=FPLBillHistory_BillFromDate_Range)*(A50&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46734,7 +49849,7 @@
       <c r="Q51" s="6">
         <v>0</v>
       </c>
-      <c r="R51" s="234" cm="1">
+      <c r="R51" s="233" cm="1">
         <f t="array" aca="1" ref="R51" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A51&gt;=FPLBillHistory_BillFromDate_Range)*(A51&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -46920,7 +50035,7 @@
       <c r="Q52" s="6">
         <v>0.4</v>
       </c>
-      <c r="R52" s="234" cm="1">
+      <c r="R52" s="233" cm="1">
         <f t="array" aca="1" ref="R52" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A52&gt;=FPLBillHistory_BillFromDate_Range)*(A52&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -47106,7 +50221,7 @@
       <c r="Q53" s="6">
         <v>0.4</v>
       </c>
-      <c r="R53" s="234" cm="1">
+      <c r="R53" s="233" cm="1">
         <f t="array" aca="1" ref="R53" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A53&gt;=FPLBillHistory_BillFromDate_Range)*(A53&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -47292,7 +50407,7 @@
       <c r="Q54" s="6">
         <v>0.4</v>
       </c>
-      <c r="R54" s="234" cm="1">
+      <c r="R54" s="233" cm="1">
         <f t="array" aca="1" ref="R54" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A54&gt;=FPLBillHistory_BillFromDate_Range)*(A54&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -47474,7 +50589,7 @@
       <c r="Q55" s="6">
         <v>0</v>
       </c>
-      <c r="R55" s="234" cm="1">
+      <c r="R55" s="233" cm="1">
         <f t="array" aca="1" ref="R55" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A55&gt;=FPLBillHistory_BillFromDate_Range)*(A55&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -47660,7 +50775,7 @@
       <c r="Q56" s="6">
         <v>0.4</v>
       </c>
-      <c r="R56" s="234" cm="1">
+      <c r="R56" s="233" cm="1">
         <f t="array" aca="1" ref="R56" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A56&gt;=FPLBillHistory_BillFromDate_Range)*(A56&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -47846,7 +50961,7 @@
       <c r="Q57" s="6">
         <v>0.4</v>
       </c>
-      <c r="R57" s="234" cm="1">
+      <c r="R57" s="233" cm="1">
         <f t="array" aca="1" ref="R57" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A57&gt;=FPLBillHistory_BillFromDate_Range)*(A57&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48032,7 +51147,7 @@
       <c r="Q58" s="6">
         <v>0.4</v>
       </c>
-      <c r="R58" s="234" cm="1">
+      <c r="R58" s="233" cm="1">
         <f t="array" aca="1" ref="R58" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A58&gt;=FPLBillHistory_BillFromDate_Range)*(A58&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48218,7 +51333,7 @@
       <c r="Q59" s="6">
         <v>0.4</v>
       </c>
-      <c r="R59" s="234" cm="1">
+      <c r="R59" s="233" cm="1">
         <f t="array" aca="1" ref="R59" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A59&gt;=FPLBillHistory_BillFromDate_Range)*(A59&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48400,7 +51515,7 @@
       <c r="Q60" s="6">
         <v>0</v>
       </c>
-      <c r="R60" s="234" cm="1">
+      <c r="R60" s="233" cm="1">
         <f t="array" aca="1" ref="R60" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A60&gt;=FPLBillHistory_BillFromDate_Range)*(A60&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48582,7 +51697,7 @@
       <c r="Q61" s="6">
         <v>0</v>
       </c>
-      <c r="R61" s="234" cm="1">
+      <c r="R61" s="233" cm="1">
         <f t="array" aca="1" ref="R61" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A61&gt;=FPLBillHistory_BillFromDate_Range)*(A61&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48764,7 +51879,7 @@
       <c r="Q62" s="6">
         <v>0</v>
       </c>
-      <c r="R62" s="234" cm="1">
+      <c r="R62" s="233" cm="1">
         <f t="array" aca="1" ref="R62" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A62&gt;=FPLBillHistory_BillFromDate_Range)*(A62&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -48950,7 +52065,7 @@
       <c r="Q63" s="6">
         <v>0.4</v>
       </c>
-      <c r="R63" s="234" cm="1">
+      <c r="R63" s="233" cm="1">
         <f t="array" aca="1" ref="R63" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A63&gt;=FPLBillHistory_BillFromDate_Range)*(A63&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -49132,7 +52247,7 @@
       <c r="Q64" s="6">
         <v>0</v>
       </c>
-      <c r="R64" s="234" cm="1">
+      <c r="R64" s="233" cm="1">
         <f t="array" aca="1" ref="R64" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A64&gt;=FPLBillHistory_BillFromDate_Range)*(A64&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -49314,7 +52429,7 @@
       <c r="Q65" s="6">
         <v>0</v>
       </c>
-      <c r="R65" s="234" cm="1">
+      <c r="R65" s="233" cm="1">
         <f t="array" aca="1" ref="R65" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A65&gt;=FPLBillHistory_BillFromDate_Range)*(A65&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -49496,7 +52611,7 @@
       <c r="Q66" s="6">
         <v>0</v>
       </c>
-      <c r="R66" s="234" cm="1">
+      <c r="R66" s="233" cm="1">
         <f t="array" aca="1" ref="R66" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A66&gt;=FPLBillHistory_BillFromDate_Range)*(A66&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -49682,7 +52797,7 @@
       <c r="Q67" s="6">
         <v>0.4</v>
       </c>
-      <c r="R67" s="234" cm="1">
+      <c r="R67" s="233" cm="1">
         <f t="array" aca="1" ref="R67" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A67&gt;=FPLBillHistory_BillFromDate_Range)*(A67&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -49864,7 +52979,7 @@
       <c r="Q68" s="6">
         <v>0</v>
       </c>
-      <c r="R68" s="234" cm="1">
+      <c r="R68" s="233" cm="1">
         <f t="array" aca="1" ref="R68" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A68&gt;=FPLBillHistory_BillFromDate_Range)*(A68&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50050,7 +53165,7 @@
       <c r="Q69" s="6">
         <v>0.4</v>
       </c>
-      <c r="R69" s="234" cm="1">
+      <c r="R69" s="233" cm="1">
         <f t="array" aca="1" ref="R69" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A69&gt;=FPLBillHistory_BillFromDate_Range)*(A69&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50232,7 +53347,7 @@
       <c r="Q70" s="6">
         <v>0</v>
       </c>
-      <c r="R70" s="234" cm="1">
+      <c r="R70" s="233" cm="1">
         <f t="array" aca="1" ref="R70" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A70&gt;=FPLBillHistory_BillFromDate_Range)*(A70&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50418,7 +53533,7 @@
       <c r="Q71" s="6">
         <v>0.4</v>
       </c>
-      <c r="R71" s="234" cm="1">
+      <c r="R71" s="233" cm="1">
         <f t="array" aca="1" ref="R71" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A71&gt;=FPLBillHistory_BillFromDate_Range)*(A71&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50604,7 +53719,7 @@
       <c r="Q72" s="6">
         <v>0.4</v>
       </c>
-      <c r="R72" s="234" cm="1">
+      <c r="R72" s="233" cm="1">
         <f t="array" aca="1" ref="R72" ca="1">INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A72&gt;=FPLBillHistory_BillFromDate_Range)*(A72&lt;=FPLBillHistory_BillToDate_Range), 0))</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50786,7 +53901,7 @@
       <c r="Q73" s="6">
         <v>0</v>
       </c>
-      <c r="R73" s="234" cm="1">
+      <c r="R73" s="233" cm="1">
         <f t="array" aca="1" ref="R73" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A73&gt;=FPLBillHistory_BillFromDate_Range)*(A73&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -50968,7 +54083,7 @@
       <c r="Q74" s="6">
         <v>0</v>
       </c>
-      <c r="R74" s="234" cm="1">
+      <c r="R74" s="233" cm="1">
         <f t="array" aca="1" ref="R74" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A74&gt;=FPLBillHistory_BillFromDate_Range)*(A74&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51150,7 +54265,7 @@
       <c r="Q75" s="6">
         <v>0</v>
       </c>
-      <c r="R75" s="234" cm="1">
+      <c r="R75" s="233" cm="1">
         <f t="array" aca="1" ref="R75" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A75&gt;=FPLBillHistory_BillFromDate_Range)*(A75&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51336,7 +54451,7 @@
       <c r="Q76" s="6">
         <v>0.4</v>
       </c>
-      <c r="R76" s="234" cm="1">
+      <c r="R76" s="233" cm="1">
         <f t="array" aca="1" ref="R76" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A76&gt;=FPLBillHistory_BillFromDate_Range)*(A76&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51510,7 +54625,7 @@
         <v>0.15486111111111112</v>
       </c>
       <c r="N77" s="6">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O77" s="131">
         <v>280</v>
@@ -51522,7 +54637,7 @@
       <c r="Q77" s="6">
         <v>0.4</v>
       </c>
-      <c r="R77" s="234" cm="1">
+      <c r="R77" s="233" cm="1">
         <f t="array" aca="1" ref="R77" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A77&gt;=FPLBillHistory_BillFromDate_Range)*(A77&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51656,11 +54771,11 @@
         <v>45973</v>
       </c>
       <c r="B78" s="131">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="C78" s="181" cm="1">
         <f t="array" ref="C78">IF(B78=0, 0, B78 - INDEX(B$4:B77, MAX(IF(B$4:B77&lt;&gt;0, ROW(B$4:B77)-ROW(B$4)+1))))</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D78" s="131">
         <v>0</v>
@@ -51669,42 +54784,46 @@
         <v>0</v>
       </c>
       <c r="F78" s="131">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G78" s="181">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H78" s="181">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I78" s="131">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J78" s="131">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K78" s="181">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="L78" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M78" s="24">
+        <v>0.22083333333333333</v>
+      </c>
       <c r="N78" s="6">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="O78" s="131">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="P78" s="159">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3.0869565217391304</v>
       </c>
       <c r="Q78" s="6">
-        <v>0</v>
-      </c>
-      <c r="R78" s="234" cm="1">
+        <v>0.4</v>
+      </c>
+      <c r="R78" s="233" cm="1">
         <f t="array" aca="1" ref="R78" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A78&gt;=FPLBillHistory_BillFromDate_Range)*(A78&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51714,117 +54833,117 @@
       </c>
       <c r="T78" s="4">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>3.220494623655914</v>
       </c>
       <c r="U78" s="4">
         <f t="shared" ca="1" si="54"/>
-        <v>0</v>
+        <v>3.220494623655914</v>
       </c>
       <c r="V78" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="W78" s="4">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X78" s="4">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>7.6680000000000001</v>
       </c>
       <c r="Y78" s="9">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>4.4475053763440862</v>
       </c>
       <c r="Z78" s="7">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>0.58000852586646923</v>
       </c>
       <c r="AA78" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>5.9795053763440871</v>
       </c>
       <c r="AB78" s="4">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="AC78" s="4">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7.6680000000000001</v>
       </c>
       <c r="AD78" s="4">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>3.220494623655914</v>
       </c>
       <c r="AE78" s="4">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>-1.5320000000000009</v>
       </c>
       <c r="AF78" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>4.4475053763440862</v>
       </c>
       <c r="AG78" s="4">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>5.9795053763440871</v>
       </c>
       <c r="AH78" s="134">
         <f>'Gas Chemistry'!$B$11*$W78</f>
-        <v>0</v>
+        <v>55.664000000000001</v>
       </c>
       <c r="AI78" s="134">
         <f>'Gas Chemistry'!$B$12*$W78</f>
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="AJ78" s="134">
         <v>0</v>
       </c>
       <c r="AK78" s="134">
         <f>'Gas Chemistry'!$B$13*$W78</f>
-        <v>0</v>
+        <v>5.6799999999999996E-2</v>
       </c>
       <c r="AL78" s="134">
         <f>'Gas Chemistry'!$B$14*$W78</f>
-        <v>0</v>
+        <v>2.8399999999999998E-2</v>
       </c>
       <c r="AM78" s="134">
         <f>'Gas Chemistry'!$B$15*$W78</f>
-        <v>0</v>
+        <v>5.6800000000000002E-3</v>
       </c>
       <c r="AN78" s="134">
         <f>'Gas Chemistry'!$B$16*$W78</f>
-        <v>0</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="AO78" s="134">
         <f>'Gas Chemistry'!$B$17*$W78</f>
-        <v>0</v>
+        <v>1.136E-2</v>
       </c>
       <c r="AP78" s="23">
         <f>H78*Constants!$C$14</f>
-        <v>0</v>
+        <v>78.475999999999999</v>
       </c>
       <c r="AQ78" s="136">
         <f>'Gas Chemistry'!$C$122*$AP78</f>
-        <v>0</v>
+        <v>9.181692</v>
       </c>
       <c r="AR78" s="135">
         <f>'Gas Chemistry'!$C$123*$AP78</f>
-        <v>0</v>
+        <v>11.300543999999999</v>
       </c>
       <c r="AS78" s="135">
         <f>'Gas Chemistry'!$C$127*$AP78</f>
-        <v>0</v>
+        <v>368.8372</v>
       </c>
       <c r="AT78" s="136">
         <f>'Gas Chemistry'!$C$124*$AP78</f>
-        <v>0</v>
+        <v>6.5919839999999995E-3</v>
       </c>
       <c r="AU78" s="136">
         <f>'Gas Chemistry'!$C$126*$AP78</f>
-        <v>0</v>
+        <v>7.8475999999999997E-3</v>
       </c>
       <c r="AV78" s="136">
         <f>'Gas Chemistry'!$C$125*$AP78</f>
-        <v>0</v>
+        <v>3.9238000000000001E-4</v>
       </c>
       <c r="AW78" s="136">
         <v>0</v>
@@ -51838,11 +54957,11 @@
         <v>45974</v>
       </c>
       <c r="B79" s="131">
-        <v>0</v>
+        <v>2502</v>
       </c>
       <c r="C79" s="181" cm="1">
         <f t="array" ref="C79">IF(B79=0, 0, B79 - INDEX(B$4:B78, MAX(IF(B$4:B78&lt;&gt;0, ROW(B$4:B78)-ROW(B$4)+1))))</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D79" s="131">
         <v>0</v>
@@ -51851,42 +54970,46 @@
         <v>0</v>
       </c>
       <c r="F79" s="131">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G79" s="181">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H79" s="181">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I79" s="131">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J79" s="131">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K79" s="181">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="L79" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M79" s="24">
+        <v>0.12708333333333333</v>
+      </c>
       <c r="N79" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" s="131">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="P79" s="159">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="Q79" s="6">
-        <v>0</v>
-      </c>
-      <c r="R79" s="234" cm="1">
+        <v>0.4</v>
+      </c>
+      <c r="R79" s="233" cm="1">
         <f t="array" aca="1" ref="R79" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A79&gt;=FPLBillHistory_BillFromDate_Range)*(A79&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -51896,117 +55019,117 @@
       </c>
       <c r="T79" s="4">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="U79" s="4">
         <f t="shared" ca="1" si="54"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="V79" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="W79" s="4">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X79" s="4">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.5360000000000005</v>
       </c>
       <c r="Y79" s="9">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>2.9957634408602156</v>
       </c>
       <c r="Z79" s="7">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>0.66044167567465062</v>
       </c>
       <c r="AA79" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>2.8597634408602155</v>
       </c>
       <c r="AB79" s="4">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AC79" s="4">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.5360000000000005</v>
       </c>
       <c r="AD79" s="4">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="AE79" s="4">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>0.13600000000000012</v>
       </c>
       <c r="AF79" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>2.9957634408602156</v>
       </c>
       <c r="AG79" s="4">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>2.8597634408602155</v>
       </c>
       <c r="AH79" s="134">
         <f>'Gas Chemistry'!$B$11*$W79</f>
-        <v>0</v>
+        <v>32.928000000000004</v>
       </c>
       <c r="AI79" s="134">
         <f>'Gas Chemistry'!$B$12*$W79</f>
-        <v>0</v>
+        <v>13.44</v>
       </c>
       <c r="AJ79" s="134">
         <v>0</v>
       </c>
       <c r="AK79" s="134">
         <f>'Gas Chemistry'!$B$13*$W79</f>
-        <v>0</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="AL79" s="134">
         <f>'Gas Chemistry'!$B$14*$W79</f>
-        <v>0</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="AM79" s="134">
         <f>'Gas Chemistry'!$B$15*$W79</f>
-        <v>0</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="AN79" s="134">
         <f>'Gas Chemistry'!$B$16*$W79</f>
-        <v>0</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="AO79" s="134">
         <f>'Gas Chemistry'!$B$17*$W79</f>
-        <v>0</v>
+        <v>6.7200000000000003E-3</v>
       </c>
       <c r="AP79" s="23">
         <f>H79*Constants!$C$14</f>
-        <v>0</v>
+        <v>37.531999999999996</v>
       </c>
       <c r="AQ79" s="136">
         <f>'Gas Chemistry'!$C$122*$AP79</f>
-        <v>0</v>
+        <v>4.3912439999999995</v>
       </c>
       <c r="AR79" s="135">
         <f>'Gas Chemistry'!$C$123*$AP79</f>
-        <v>0</v>
+        <v>5.4046079999999987</v>
       </c>
       <c r="AS79" s="135">
         <f>'Gas Chemistry'!$C$127*$AP79</f>
-        <v>0</v>
+        <v>176.40039999999999</v>
       </c>
       <c r="AT79" s="136">
         <f>'Gas Chemistry'!$C$124*$AP79</f>
-        <v>0</v>
+        <v>3.1526879999999994E-3</v>
       </c>
       <c r="AU79" s="136">
         <f>'Gas Chemistry'!$C$126*$AP79</f>
-        <v>0</v>
+        <v>3.7531999999999999E-3</v>
       </c>
       <c r="AV79" s="136">
         <f>'Gas Chemistry'!$C$125*$AP79</f>
-        <v>0</v>
+        <v>1.8766E-4</v>
       </c>
       <c r="AW79" s="136">
         <v>0</v>
@@ -52068,7 +55191,7 @@
       <c r="Q80" s="6">
         <v>0</v>
       </c>
-      <c r="R80" s="234" cm="1">
+      <c r="R80" s="233" cm="1">
         <f t="array" aca="1" ref="R80" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A80&gt;=FPLBillHistory_BillFromDate_Range)*(A80&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -52202,11 +55325,11 @@
         <v>45976</v>
       </c>
       <c r="B81" s="131">
-        <v>0</v>
+        <v>2542</v>
       </c>
       <c r="C81" s="181" cm="1">
         <f t="array" ref="C81">IF(B81=0, 0, B81 - INDEX(B$4:B80, MAX(IF(B$4:B80&lt;&gt;0, ROW(B$4:B80)-ROW(B$4)+1))))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D81" s="131">
         <v>0</v>
@@ -52215,42 +55338,46 @@
         <v>0</v>
       </c>
       <c r="F81" s="131">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G81" s="181">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H81" s="181">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I81" s="131">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J81" s="131">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K81" s="181">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="L81" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M81" s="24">
+        <v>0.13055555555555556</v>
+      </c>
       <c r="N81" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81" s="131">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="P81" s="159">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q81" s="6">
-        <v>0</v>
-      </c>
-      <c r="R81" s="234" cm="1">
+        <v>0.4</v>
+      </c>
+      <c r="R81" s="233" cm="1">
         <f t="array" aca="1" ref="R81" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A81&gt;=FPLBillHistory_BillFromDate_Range)*(A81&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -52260,117 +55387,117 @@
       </c>
       <c r="T81" s="4">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="U81" s="4">
         <f t="shared" ca="1" si="54"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="V81" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="W81" s="4">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X81" s="4">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="Y81" s="9">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>2.7797634408602154</v>
       </c>
       <c r="Z81" s="7">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>0.64346375945838319</v>
       </c>
       <c r="AA81" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>2.8597634408602155</v>
       </c>
       <c r="AB81" s="4">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AC81" s="4">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="AD81" s="4">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>1.5402365591397849</v>
       </c>
       <c r="AE81" s="4">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>-8.0000000000000071E-2</v>
       </c>
       <c r="AF81" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>2.7797634408602154</v>
       </c>
       <c r="AG81" s="4">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>2.8597634408602155</v>
       </c>
       <c r="AH81" s="134">
         <f>'Gas Chemistry'!$B$11*$W81</f>
-        <v>0</v>
+        <v>31.360000000000003</v>
       </c>
       <c r="AI81" s="134">
         <f>'Gas Chemistry'!$B$12*$W81</f>
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AJ81" s="134">
         <v>0</v>
       </c>
       <c r="AK81" s="134">
         <f>'Gas Chemistry'!$B$13*$W81</f>
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AL81" s="134">
         <f>'Gas Chemistry'!$B$14*$W81</f>
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM81" s="134">
         <f>'Gas Chemistry'!$B$15*$W81</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="AN81" s="134">
         <f>'Gas Chemistry'!$B$16*$W81</f>
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AO81" s="134">
         <f>'Gas Chemistry'!$B$17*$W81</f>
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="AP81" s="23">
         <f>H81*Constants!$C$14</f>
-        <v>0</v>
+        <v>37.531999999999996</v>
       </c>
       <c r="AQ81" s="136">
         <f>'Gas Chemistry'!$C$122*$AP81</f>
-        <v>0</v>
+        <v>4.3912439999999995</v>
       </c>
       <c r="AR81" s="135">
         <f>'Gas Chemistry'!$C$123*$AP81</f>
-        <v>0</v>
+        <v>5.4046079999999987</v>
       </c>
       <c r="AS81" s="135">
         <f>'Gas Chemistry'!$C$127*$AP81</f>
-        <v>0</v>
+        <v>176.40039999999999</v>
       </c>
       <c r="AT81" s="136">
         <f>'Gas Chemistry'!$C$124*$AP81</f>
-        <v>0</v>
+        <v>3.1526879999999994E-3</v>
       </c>
       <c r="AU81" s="136">
         <f>'Gas Chemistry'!$C$126*$AP81</f>
-        <v>0</v>
+        <v>3.7531999999999999E-3</v>
       </c>
       <c r="AV81" s="136">
         <f>'Gas Chemistry'!$C$125*$AP81</f>
-        <v>0</v>
+        <v>1.8766E-4</v>
       </c>
       <c r="AW81" s="136">
         <v>0</v>
@@ -52432,7 +55559,7 @@
       <c r="Q82" s="6">
         <v>0</v>
       </c>
-      <c r="R82" s="234" cm="1">
+      <c r="R82" s="233" cm="1">
         <f t="array" aca="1" ref="R82" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A82&gt;=FPLBillHistory_BillFromDate_Range)*(A82&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -52614,7 +55741,7 @@
       <c r="Q83" s="6">
         <v>0</v>
       </c>
-      <c r="R83" s="234" cm="1">
+      <c r="R83" s="233" cm="1">
         <f t="array" aca="1" ref="R83" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A83&gt;=FPLBillHistory_BillFromDate_Range)*(A83&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -52796,7 +55923,7 @@
       <c r="Q84" s="6">
         <v>0</v>
       </c>
-      <c r="R84" s="234" cm="1">
+      <c r="R84" s="233" cm="1">
         <f t="array" aca="1" ref="R84" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A84&gt;=FPLBillHistory_BillFromDate_Range)*(A84&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -52978,7 +56105,7 @@
       <c r="Q85" s="6">
         <v>0</v>
       </c>
-      <c r="R85" s="234" cm="1">
+      <c r="R85" s="233" cm="1">
         <f t="array" aca="1" ref="R85" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A85&gt;=FPLBillHistory_BillFromDate_Range)*(A85&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -53160,7 +56287,7 @@
       <c r="Q86" s="6">
         <v>0</v>
       </c>
-      <c r="R86" s="234" cm="1">
+      <c r="R86" s="233" cm="1">
         <f t="array" aca="1" ref="R86" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A86&gt;=FPLBillHistory_BillFromDate_Range)*(A86&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -53342,7 +56469,7 @@
       <c r="Q87" s="6">
         <v>0</v>
       </c>
-      <c r="R87" s="234" cm="1">
+      <c r="R87" s="233" cm="1">
         <f t="array" aca="1" ref="R87" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A87&gt;=FPLBillHistory_BillFromDate_Range)*(A87&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -53524,7 +56651,7 @@
       <c r="Q88" s="6">
         <v>0</v>
       </c>
-      <c r="R88" s="234" cm="1">
+      <c r="R88" s="233" cm="1">
         <f t="array" aca="1" ref="R88" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A88&gt;=FPLBillHistory_BillFromDate_Range)*(A88&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -53706,7 +56833,7 @@
       <c r="Q89" s="6">
         <v>0</v>
       </c>
-      <c r="R89" s="234" cm="1">
+      <c r="R89" s="233" cm="1">
         <f t="array" aca="1" ref="R89" ca="1">IFERROR(INDEX(FPLBillHistory_BilledPricePerKW_Range, MATCH(1, (A89&gt;=FPLBillHistory_BillFromDate_Range)*(A89&lt;=FPLBillHistory_BillToDate_Range), 0)),0)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -54119,12 +57246,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23EF74-F6BD-4DE8-9299-B5A089E03EF1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54139,53 +57266,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="232" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="232" t="s">
         <v>403</v>
       </c>
       <c r="C1" s="191" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="233" t="s">
+      <c r="D1" s="232" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="233" t="s">
+      <c r="E1" s="232" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="232" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="233" t="s">
+      <c r="G1" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="233" t="s">
+      <c r="H1" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="233" t="s">
+      <c r="I1" s="232" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="231"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231">
+      <c r="A2" s="230"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230">
         <f>SUM(D3:D400)</f>
         <v>154.99</v>
       </c>
-      <c r="E2" s="231"/>
-      <c r="F2" s="232">
+      <c r="E2" s="230"/>
+      <c r="F2" s="231">
         <f>SUM(F3:F400)</f>
         <v>1443.5938845822564</v>
       </c>
-      <c r="G2" s="232">
+      <c r="G2" s="231">
         <f>SUM(G3:G400)</f>
         <v>57.743755383290264</v>
       </c>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -54366,7 +57493,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
       <c r="D8">
         <v>19.739999999999998</v>
@@ -54396,7 +57523,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -54405,7 +57532,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -54414,7 +57541,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -54423,7 +57550,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -54432,7 +57559,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -54441,7 +57568,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -54450,7 +57577,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -54459,7 +57586,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -54468,7 +57595,7 @@
       </c>
       <c r="C17" s="1">
         <f ca="1">IF(ISBLANK(B18), IF(NOW()&lt;B17,B17,NOW()), B18-1)</f>
-        <v>45972.324336574071</v>
+        <v>45976.291808680558</v>
       </c>
     </row>
   </sheetData>
@@ -54476,2029 +57603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCD7AFF-82C3-4876-A866-2DFC7CDD5A6D}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:X24"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" style="211" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="211"/>
-    <col min="18" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="250" t="s">
-        <v>394</v>
-      </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="M2" s="251" t="s">
-        <v>395</v>
-      </c>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-    </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="222" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="222" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="222" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="222" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="222" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="222" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="222" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="222" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="222" t="s">
-        <v>397</v>
-      </c>
-      <c r="J3" s="222" t="s">
-        <v>374</v>
-      </c>
-      <c r="K3" s="222" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="220" t="s">
-        <v>392</v>
-      </c>
-      <c r="N3" s="220" t="s">
-        <v>393</v>
-      </c>
-      <c r="O3" s="220" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="220" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="220" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="S3" s="220" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="220" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="220" t="s">
-        <v>397</v>
-      </c>
-      <c r="V3" s="220" t="s">
-        <v>374</v>
-      </c>
-      <c r="W3" s="220" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="222"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="224">
-        <f t="shared" ref="C4:I4" si="0">SUM(C5:C6000)</f>
-        <v>143</v>
-      </c>
-      <c r="D4" s="229">
-        <f t="shared" si="0"/>
-        <v>564</v>
-      </c>
-      <c r="E4" s="229">
-        <f t="shared" si="0"/>
-        <v>2389</v>
-      </c>
-      <c r="F4" s="223">
-        <f t="shared" ca="1" si="0"/>
-        <v>126.34844313346076</v>
-      </c>
-      <c r="G4" s="223">
-        <f t="shared" si="0"/>
-        <v>258.012</v>
-      </c>
-      <c r="H4" s="223">
-        <f t="shared" ca="1" si="0"/>
-        <v>131.66355686653924</v>
-      </c>
-      <c r="I4" s="223">
-        <f t="shared" si="0"/>
-        <v>95.559999999999988</v>
-      </c>
-      <c r="J4" s="222"/>
-      <c r="K4" s="230">
-        <f ca="1">SUM(K5:K6000)</f>
-        <v>78.168443133460769</v>
-      </c>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="226">
-        <f t="shared" ref="O4:U4" si="1">SUM(O5:O6000)</f>
-        <v>143</v>
-      </c>
-      <c r="P4" s="226">
-        <f t="shared" si="1"/>
-        <v>564</v>
-      </c>
-      <c r="Q4" s="226">
-        <f t="shared" si="1"/>
-        <v>2389</v>
-      </c>
-      <c r="R4" s="225">
-        <f t="shared" ca="1" si="1"/>
-        <v>126.34844313346076</v>
-      </c>
-      <c r="S4" s="225">
-        <f t="shared" si="1"/>
-        <v>258.012</v>
-      </c>
-      <c r="T4" s="225">
-        <f t="shared" ca="1" si="1"/>
-        <v>131.66355686653927</v>
-      </c>
-      <c r="U4" s="225">
-        <f t="shared" si="1"/>
-        <v>95.559999999999988</v>
-      </c>
-      <c r="V4" s="227"/>
-      <c r="W4" s="228">
-        <f ca="1">SUM(W5:W6000)</f>
-        <v>78.168443133460769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="213">
-        <v>45870</v>
-      </c>
-      <c r="B5" s="213">
-        <f>A6-1</f>
-        <v>45900</v>
-      </c>
-      <c r="C5" s="216">
-        <f t="shared" ref="C5:C24" si="2">SUMIFS(ChargeStats_SuperChargerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="217">
-        <f t="shared" ref="D5:D24" si="3">SUMIFS(ChargeStats_HomeKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="181">
-        <f t="shared" ref="E5:E24" si="4">SUMIFS(ChargeStats_MilesDriven_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="214">
-        <f t="shared" ref="F5:F24" ca="1" si="5">SUMIFS(ChargeStats_TotalChargeCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="214">
-        <f t="shared" ref="G5:G24" si="6">SUMIFS(ChargeStats_EstGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="214">
-        <f t="shared" ref="H5:H24" ca="1" si="7">SUMIFS(ChargeStats_ChargeGasCostDifference_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="216">
-        <f t="shared" ref="I5:I24" si="8">SUMIFS(ChargeStats_EstGallonsOfGas_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="217">
-        <f t="shared" ref="J5:J24" si="9">IFERROR(AVERAGEIFS(ChargeStats_MilesPerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="215">
-        <f t="shared" ref="K5:K24" ca="1" si="10">SUMIFS(ChargeStats_ChargeCostHome_Range,ChargeStats_Date_Range,"&gt;="&amp;$A5,ChargeStats_Date_Range,"&lt;="&amp;$B5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="218"/>
-      <c r="M5" s="212">
-        <v>45900</v>
-      </c>
-      <c r="N5" s="212">
-        <f t="shared" ref="N5:N23" si="11">M6-1</f>
-        <v>45906</v>
-      </c>
-      <c r="O5" s="221">
-        <f t="shared" ref="O5:O24" si="12">SUMIFS(ChargeStats_SuperChargerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>49</v>
-      </c>
-      <c r="P5" s="221">
-        <f t="shared" ref="P5:P24" si="13">SUMIFS(ChargeStats_HomeKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="181">
-        <f t="shared" ref="Q5:Q24" si="14">SUMIFS(ChargeStats_MilesDriven_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>130</v>
-      </c>
-      <c r="R5" s="215">
-        <f t="shared" ref="R5:R24" ca="1" si="15">SUMIFS(ChargeStats_TotalChargeCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>16.66</v>
-      </c>
-      <c r="S5" s="215">
-        <f t="shared" ref="S5:S24" si="16">SUMIFS(ChargeStats_EstGasCost_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>14.040000000000001</v>
-      </c>
-      <c r="T5" s="215">
-        <f t="shared" ref="T5:T24" ca="1" si="17">SUMIFS(ChargeStats_ChargeGasCostDifference_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>-2.6199999999999992</v>
-      </c>
-      <c r="U5" s="217">
-        <f t="shared" ref="U5:U24" si="18">SUMIFS(ChargeStats_EstGallonsOfGas_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>5.2</v>
-      </c>
-      <c r="V5" s="217">
-        <f t="shared" ref="V5:V24" si="19">IFERROR(AVERAGEIFS(ChargeStats_MilesPerKWh_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5),0)</f>
-        <v>0.3790087463556851</v>
-      </c>
-      <c r="W5" s="215">
-        <f t="shared" ref="W5:W24" ca="1" si="20">SUMIFS(ChargeStats_ChargeCostHome_Range,ChargeStats_Date_Range,"&gt;="&amp;$M5,ChargeStats_Date_Range,"&lt;="&amp;$N5)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="219"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="213">
-        <v>45901</v>
-      </c>
-      <c r="B6" s="213">
-        <f t="shared" ref="B6:B23" si="21">A7-1</f>
-        <v>45930</v>
-      </c>
-      <c r="C6" s="217">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="D6" s="217">
-        <f t="shared" si="3"/>
-        <v>179</v>
-      </c>
-      <c r="E6" s="181">
-        <f t="shared" si="4"/>
-        <v>966</v>
-      </c>
-      <c r="F6" s="215">
-        <f t="shared" ca="1" si="5"/>
-        <v>65.507059253840524</v>
-      </c>
-      <c r="G6" s="215">
-        <f t="shared" si="6"/>
-        <v>104.328</v>
-      </c>
-      <c r="H6" s="215">
-        <f t="shared" ca="1" si="7"/>
-        <v>38.820940746159472</v>
-      </c>
-      <c r="I6" s="217">
-        <f t="shared" si="8"/>
-        <v>38.64</v>
-      </c>
-      <c r="J6" s="217">
-        <f t="shared" si="9"/>
-        <v>1.6832631766548081</v>
-      </c>
-      <c r="K6" s="215">
-        <f t="shared" ca="1" si="10"/>
-        <v>24.527059253840527</v>
-      </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="212">
-        <f>M5+7</f>
-        <v>45907</v>
-      </c>
-      <c r="N6" s="212">
-        <f t="shared" si="11"/>
-        <v>45913</v>
-      </c>
-      <c r="O6" s="221">
-        <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="P6" s="221">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="Q6" s="181">
-        <f t="shared" si="14"/>
-        <v>295</v>
-      </c>
-      <c r="R6" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>26.238317483540602</v>
-      </c>
-      <c r="S6" s="215">
-        <f t="shared" si="16"/>
-        <v>31.86</v>
-      </c>
-      <c r="T6" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>5.6216825164593995</v>
-      </c>
-      <c r="U6" s="217">
-        <f t="shared" si="18"/>
-        <v>11.8</v>
-      </c>
-      <c r="V6" s="217">
-        <f t="shared" si="19"/>
-        <v>1.8295739348370927</v>
-      </c>
-      <c r="W6" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.9183174835405998</v>
-      </c>
-      <c r="X6" s="219"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="213">
-        <v>45931</v>
-      </c>
-      <c r="B7" s="213">
-        <f t="shared" si="21"/>
-        <v>45961</v>
-      </c>
-      <c r="C7" s="217">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D7" s="217">
-        <f t="shared" si="3"/>
-        <v>265</v>
-      </c>
-      <c r="E7" s="181">
-        <f t="shared" si="4"/>
-        <v>978</v>
-      </c>
-      <c r="F7" s="215">
-        <f t="shared" ca="1" si="5"/>
-        <v>44.038803234458946</v>
-      </c>
-      <c r="G7" s="215">
-        <f t="shared" si="6"/>
-        <v>105.62400000000001</v>
-      </c>
-      <c r="H7" s="215">
-        <f t="shared" ca="1" si="7"/>
-        <v>61.585196765541056</v>
-      </c>
-      <c r="I7" s="217">
-        <f t="shared" si="8"/>
-        <v>39.119999999999997</v>
-      </c>
-      <c r="J7" s="217">
-        <f t="shared" si="9"/>
-        <v>1.7667287230816642</v>
-      </c>
-      <c r="K7" s="215">
-        <f t="shared" ca="1" si="10"/>
-        <v>36.83880323445895</v>
-      </c>
-      <c r="L7" s="218"/>
-      <c r="M7" s="212">
-        <f t="shared" ref="M7:M24" si="22">M6+7</f>
-        <v>45914</v>
-      </c>
-      <c r="N7" s="212">
-        <f t="shared" si="11"/>
-        <v>45920</v>
-      </c>
-      <c r="O7" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="221">
-        <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-      <c r="Q7" s="181">
-        <f t="shared" si="14"/>
-        <v>251</v>
-      </c>
-      <c r="R7" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.6324286759326991</v>
-      </c>
-      <c r="S7" s="215">
-        <f t="shared" si="16"/>
-        <v>27.108000000000004</v>
-      </c>
-      <c r="T7" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>18.475571324067303</v>
-      </c>
-      <c r="U7" s="217">
-        <f t="shared" si="18"/>
-        <v>10.040000000000001</v>
-      </c>
-      <c r="V7" s="217">
-        <f t="shared" si="19"/>
-        <v>2.6672553636839349</v>
-      </c>
-      <c r="W7" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>8.6324286759326991</v>
-      </c>
-      <c r="X7" s="219"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="213">
-        <v>45962</v>
-      </c>
-      <c r="B8" s="213">
-        <f t="shared" si="21"/>
-        <v>45991</v>
-      </c>
-      <c r="C8" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="217">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="E8" s="181">
-        <f t="shared" si="4"/>
-        <v>445</v>
-      </c>
-      <c r="F8" s="215">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.802580645161292</v>
-      </c>
-      <c r="G8" s="215">
-        <f t="shared" si="6"/>
-        <v>48.06</v>
-      </c>
-      <c r="H8" s="215">
-        <f t="shared" ca="1" si="7"/>
-        <v>31.257419354838717</v>
-      </c>
-      <c r="I8" s="217">
-        <f t="shared" si="8"/>
-        <v>17.8</v>
-      </c>
-      <c r="J8" s="217">
-        <f t="shared" si="9"/>
-        <v>0.94198781291172584</v>
-      </c>
-      <c r="K8" s="215">
-        <f t="shared" ca="1" si="10"/>
-        <v>16.802580645161292</v>
-      </c>
-      <c r="L8" s="218"/>
-      <c r="M8" s="212">
-        <f t="shared" si="22"/>
-        <v>45921</v>
-      </c>
-      <c r="N8" s="212">
-        <f t="shared" si="11"/>
-        <v>45927</v>
-      </c>
-      <c r="O8" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="221">
-        <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="Q8" s="181">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="R8" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.7286100950987553</v>
-      </c>
-      <c r="S8" s="215">
-        <f t="shared" si="16"/>
-        <v>21.6</v>
-      </c>
-      <c r="T8" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>11.871389904901246</v>
-      </c>
-      <c r="U8" s="217">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="V8" s="217">
-        <f t="shared" si="19"/>
-        <v>1.6976190476190476</v>
-      </c>
-      <c r="W8" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>9.7286100950987553</v>
-      </c>
-      <c r="X8" s="219"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="213">
-        <v>45992</v>
-      </c>
-      <c r="B9" s="213">
-        <f t="shared" si="21"/>
-        <v>46022</v>
-      </c>
-      <c r="C9" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="218"/>
-      <c r="M9" s="212">
-        <f t="shared" si="22"/>
-        <v>45928</v>
-      </c>
-      <c r="N9" s="212">
-        <f t="shared" si="11"/>
-        <v>45934</v>
-      </c>
-      <c r="O9" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="221">
-        <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="Q9" s="181">
-        <f t="shared" si="14"/>
-        <v>138</v>
-      </c>
-      <c r="R9" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.7694513533284564</v>
-      </c>
-      <c r="S9" s="215">
-        <f t="shared" si="16"/>
-        <v>14.904</v>
-      </c>
-      <c r="T9" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>6.1345486466715444</v>
-      </c>
-      <c r="U9" s="217">
-        <f t="shared" si="18"/>
-        <v>5.52</v>
-      </c>
-      <c r="V9" s="217">
-        <f t="shared" si="19"/>
-        <v>1.1352369450195536</v>
-      </c>
-      <c r="W9" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>8.7694513533284564</v>
-      </c>
-      <c r="X9" s="219"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="213">
-        <v>46023</v>
-      </c>
-      <c r="B10" s="213">
-        <f t="shared" si="21"/>
-        <v>46053</v>
-      </c>
-      <c r="C10" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="218"/>
-      <c r="M10" s="212">
-        <f t="shared" si="22"/>
-        <v>45935</v>
-      </c>
-      <c r="N10" s="212">
-        <f t="shared" si="11"/>
-        <v>45941</v>
-      </c>
-      <c r="O10" s="221">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="P10" s="221">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="Q10" s="181">
-        <f t="shared" si="14"/>
-        <v>485</v>
-      </c>
-      <c r="R10" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>20.054065633087131</v>
-      </c>
-      <c r="S10" s="215">
-        <f t="shared" si="16"/>
-        <v>52.38</v>
-      </c>
-      <c r="T10" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>32.325934366912868</v>
-      </c>
-      <c r="U10" s="217">
-        <f t="shared" si="18"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="V10" s="217">
-        <f t="shared" si="19"/>
-        <v>2.8568194900781689</v>
-      </c>
-      <c r="W10" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>12.854065633087131</v>
-      </c>
-      <c r="X10" s="219"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="213">
-        <v>46054</v>
-      </c>
-      <c r="B11" s="213">
-        <f t="shared" si="21"/>
-        <v>46081</v>
-      </c>
-      <c r="C11" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="218"/>
-      <c r="M11" s="212">
-        <f t="shared" si="22"/>
-        <v>45942</v>
-      </c>
-      <c r="N11" s="212">
-        <f t="shared" si="11"/>
-        <v>45948</v>
-      </c>
-      <c r="O11" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="221">
-        <f t="shared" si="13"/>
-        <v>41</v>
-      </c>
-      <c r="Q11" s="181">
-        <f t="shared" si="14"/>
-        <v>156</v>
-      </c>
-      <c r="R11" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.7408817204301066</v>
-      </c>
-      <c r="S11" s="215">
-        <f t="shared" si="16"/>
-        <v>16.847999999999999</v>
-      </c>
-      <c r="T11" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>11.107118279569892</v>
-      </c>
-      <c r="U11" s="217">
-        <f t="shared" si="18"/>
-        <v>6.2399999999999993</v>
-      </c>
-      <c r="V11" s="217">
-        <f t="shared" si="19"/>
-        <v>1.4819714447043639</v>
-      </c>
-      <c r="W11" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>5.7408817204301066</v>
-      </c>
-      <c r="X11" s="219"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="213">
-        <v>46082</v>
-      </c>
-      <c r="B12" s="213">
-        <f t="shared" si="21"/>
-        <v>46112</v>
-      </c>
-      <c r="C12" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="212">
-        <f t="shared" si="22"/>
-        <v>45949</v>
-      </c>
-      <c r="N12" s="212">
-        <f t="shared" si="11"/>
-        <v>45955</v>
-      </c>
-      <c r="O12" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="221">
-        <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="Q12" s="181">
-        <f t="shared" si="14"/>
-        <v>247</v>
-      </c>
-      <c r="R12" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.6813333333333329</v>
-      </c>
-      <c r="S12" s="215">
-        <f t="shared" si="16"/>
-        <v>26.676000000000002</v>
-      </c>
-      <c r="T12" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>17.994666666666667</v>
-      </c>
-      <c r="U12" s="217">
-        <f t="shared" si="18"/>
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="V12" s="217">
-        <f t="shared" si="19"/>
-        <v>2.8239177489177485</v>
-      </c>
-      <c r="W12" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>8.6813333333333329</v>
-      </c>
-      <c r="X12" s="219"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="213">
-        <v>46113</v>
-      </c>
-      <c r="B13" s="213">
-        <f t="shared" si="21"/>
-        <v>46142</v>
-      </c>
-      <c r="C13" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="218"/>
-      <c r="M13" s="212">
-        <f t="shared" si="22"/>
-        <v>45956</v>
-      </c>
-      <c r="N13" s="212">
-        <f t="shared" si="11"/>
-        <v>45962</v>
-      </c>
-      <c r="O13" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="221">
-        <f t="shared" si="13"/>
-        <v>68</v>
-      </c>
-      <c r="Q13" s="181">
-        <f t="shared" si="14"/>
-        <v>177</v>
-      </c>
-      <c r="R13" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.5214623655913968</v>
-      </c>
-      <c r="S13" s="215">
-        <f t="shared" si="16"/>
-        <v>19.116000000000003</v>
-      </c>
-      <c r="T13" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>9.5945376344086064</v>
-      </c>
-      <c r="U13" s="217">
-        <f t="shared" si="18"/>
-        <v>7.08</v>
-      </c>
-      <c r="V13" s="217">
-        <f t="shared" si="19"/>
-        <v>0.76934523809523814</v>
-      </c>
-      <c r="W13" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>9.5214623655913968</v>
-      </c>
-      <c r="X13" s="219"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="213">
-        <v>46143</v>
-      </c>
-      <c r="B14" s="213">
-        <f t="shared" si="21"/>
-        <v>46173</v>
-      </c>
-      <c r="C14" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="218"/>
-      <c r="M14" s="212">
-        <f t="shared" si="22"/>
-        <v>45963</v>
-      </c>
-      <c r="N14" s="212">
-        <f t="shared" si="11"/>
-        <v>45969</v>
-      </c>
-      <c r="O14" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="221">
-        <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="Q14" s="181">
-        <f t="shared" si="14"/>
-        <v>158</v>
-      </c>
-      <c r="R14" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>7.2811182795698928</v>
-      </c>
-      <c r="S14" s="215">
-        <f t="shared" si="16"/>
-        <v>17.064</v>
-      </c>
-      <c r="T14" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>9.7828817204301064</v>
-      </c>
-      <c r="U14" s="217">
-        <f t="shared" si="18"/>
-        <v>6.32</v>
-      </c>
-      <c r="V14" s="217">
-        <f t="shared" si="19"/>
-        <v>1.2976190476190474</v>
-      </c>
-      <c r="W14" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>7.2811182795698928</v>
-      </c>
-      <c r="X14" s="219"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="213">
-        <v>46174</v>
-      </c>
-      <c r="B15" s="213">
-        <f t="shared" si="21"/>
-        <v>46203</v>
-      </c>
-      <c r="C15" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="218"/>
-      <c r="M15" s="212">
-        <f t="shared" si="22"/>
-        <v>45970</v>
-      </c>
-      <c r="N15" s="212">
-        <f t="shared" si="11"/>
-        <v>45976</v>
-      </c>
-      <c r="O15" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="221">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="Q15" s="181">
-        <f t="shared" si="14"/>
-        <v>152</v>
-      </c>
-      <c r="R15" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.040774193548387</v>
-      </c>
-      <c r="S15" s="215">
-        <f t="shared" si="16"/>
-        <v>16.416</v>
-      </c>
-      <c r="T15" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>11.375225806451613</v>
-      </c>
-      <c r="U15" s="217">
-        <f t="shared" si="18"/>
-        <v>6.08</v>
-      </c>
-      <c r="V15" s="217">
-        <f t="shared" si="19"/>
-        <v>1.1948051948051948</v>
-      </c>
-      <c r="W15" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>5.040774193548387</v>
-      </c>
-      <c r="X15" s="219"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="213">
-        <v>46204</v>
-      </c>
-      <c r="B16" s="213">
-        <f t="shared" si="21"/>
-        <v>46234</v>
-      </c>
-      <c r="C16" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="218"/>
-      <c r="M16" s="212">
-        <f t="shared" si="22"/>
-        <v>45977</v>
-      </c>
-      <c r="N16" s="212">
-        <f t="shared" si="11"/>
-        <v>45983</v>
-      </c>
-      <c r="O16" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="219"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="213">
-        <v>46235</v>
-      </c>
-      <c r="B17" s="213">
-        <f t="shared" si="21"/>
-        <v>46265</v>
-      </c>
-      <c r="C17" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="212">
-        <f t="shared" si="22"/>
-        <v>45984</v>
-      </c>
-      <c r="N17" s="212">
-        <f t="shared" si="11"/>
-        <v>45990</v>
-      </c>
-      <c r="O17" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="215">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="215">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="215">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="219"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="213">
-        <v>46266</v>
-      </c>
-      <c r="B18" s="213">
-        <f t="shared" si="21"/>
-        <v>46295</v>
-      </c>
-      <c r="C18" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="218"/>
-      <c r="M18" s="212">
-        <f t="shared" si="22"/>
-        <v>45991</v>
-      </c>
-      <c r="N18" s="212">
-        <f t="shared" si="11"/>
-        <v>45997</v>
-      </c>
-      <c r="O18" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="219"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="213">
-        <v>46296</v>
-      </c>
-      <c r="B19" s="213">
-        <f t="shared" si="21"/>
-        <v>46326</v>
-      </c>
-      <c r="C19" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="212">
-        <f t="shared" si="22"/>
-        <v>45998</v>
-      </c>
-      <c r="N19" s="212">
-        <f t="shared" si="11"/>
-        <v>46004</v>
-      </c>
-      <c r="O19" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="219"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="213">
-        <v>46327</v>
-      </c>
-      <c r="B20" s="213">
-        <f t="shared" si="21"/>
-        <v>46356</v>
-      </c>
-      <c r="C20" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="218"/>
-      <c r="M20" s="212">
-        <f t="shared" si="22"/>
-        <v>46005</v>
-      </c>
-      <c r="N20" s="212">
-        <f t="shared" si="11"/>
-        <v>46011</v>
-      </c>
-      <c r="O20" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="219"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="213">
-        <v>46357</v>
-      </c>
-      <c r="B21" s="213">
-        <f t="shared" si="21"/>
-        <v>46387</v>
-      </c>
-      <c r="C21" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="218"/>
-      <c r="M21" s="212">
-        <f t="shared" si="22"/>
-        <v>46012</v>
-      </c>
-      <c r="N21" s="212">
-        <f t="shared" si="11"/>
-        <v>46018</v>
-      </c>
-      <c r="O21" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="219"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="213">
-        <v>46388</v>
-      </c>
-      <c r="B22" s="213">
-        <f t="shared" si="21"/>
-        <v>46418</v>
-      </c>
-      <c r="C22" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="212">
-        <f t="shared" si="22"/>
-        <v>46019</v>
-      </c>
-      <c r="N22" s="212">
-        <f t="shared" si="11"/>
-        <v>46025</v>
-      </c>
-      <c r="O22" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="219"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="213">
-        <v>46419</v>
-      </c>
-      <c r="B23" s="213">
-        <f t="shared" si="21"/>
-        <v>46446</v>
-      </c>
-      <c r="C23" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="218"/>
-      <c r="M23" s="212">
-        <f t="shared" si="22"/>
-        <v>46026</v>
-      </c>
-      <c r="N23" s="212">
-        <f t="shared" si="11"/>
-        <v>46032</v>
-      </c>
-      <c r="O23" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="219"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="213">
-        <v>46447</v>
-      </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="217">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="215">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="217">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="215">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="218"/>
-      <c r="M24" s="212">
-        <f t="shared" si="22"/>
-        <v>46033</v>
-      </c>
-      <c r="N24" s="212"/>
-      <c r="O24" s="221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="221">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="181">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="215">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="215">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="215">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="217">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="217">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="215">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="219"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="M2:W2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F5:F24" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679162FD-39C6-49F1-9AAC-48D2A5045A0B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E41"/>
@@ -56543,7 +57648,7 @@
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="4">
         <f>Total_KWs/Total_GallonsGas</f>
-        <v>7.398493093344495</v>
+        <v>7.3957513768686072</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -56552,7 +57657,7 @@
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <f ca="1">C4*Cost_PerKWh_Home_ChargeStats</f>
-        <v>1.025821698343107</v>
+        <v>1.025441551708355</v>
       </c>
       <c r="D5" t="s">
         <v>384</v>
@@ -56561,7 +57666,7 @@
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <f>'Charge Stats'!P2</f>
-        <v>3.3790664780763793</v>
+        <v>3.3803191489361701</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
@@ -56570,7 +57675,7 @@
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="23">
         <f>ChargeStats_AvgPricePerGallonoOfGas</f>
-        <v>2.7000000000000015</v>
+        <v>2.700000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>270</v>
@@ -56589,7 +57694,7 @@
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <f>_xlfn.MAXIFS(ChargeStats_Date_Range,ChargeStats_OdometerMiles_Range,"&gt;0")</f>
-        <v>45972</v>
+        <v>45976</v>
       </c>
       <c r="D9" t="s">
         <v>152</v>
@@ -56599,7 +57704,7 @@
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>C9-C8</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>151</v>
@@ -56683,12 +57788,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="252" t="s">
+      <c r="A21" s="261" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="252"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="252"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="125" t="s">
@@ -56899,7 +58004,7 @@
     <row r="38" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <f>C37/C7</f>
-        <v>527.98518518518483</v>
+        <v>527.98518518518472</v>
       </c>
       <c r="D38" t="s">
         <v>262</v>
@@ -56917,7 +58022,7 @@
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <f>C40/C7</f>
-        <v>527.98518518518483</v>
+        <v>527.98518518518472</v>
       </c>
       <c r="D41" t="s">
         <v>269</v>
@@ -56931,13 +58036,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA43862-DF2E-4916-8DC7-0C43BCFB89B8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56954,10 +58059,10 @@
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="189" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="189" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="191" t="s">
         <v>28</v>
       </c>
@@ -56997,11 +58102,11 @@
       <c r="M1" s="191" t="s">
         <v>381</v>
       </c>
-      <c r="V1" s="190">
+      <c r="Q1" s="190">
         <v>365.39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -57044,18 +58149,18 @@
         <f t="shared" ref="L2:L16" si="4">IFERROR(K2/E2,0)</f>
         <v>6.1012903225806445</v>
       </c>
-      <c r="M2" s="235">
+      <c r="M2" s="234">
         <f t="shared" ref="M2:M15" si="5">IFERROR(K2/F2,M1)</f>
         <v>0.12484488448844884</v>
       </c>
-      <c r="U2" t="s">
+      <c r="P2" t="s">
         <v>372</v>
       </c>
-      <c r="V2" s="130">
+      <c r="Q2" s="130">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -57098,19 +58203,19 @@
         <f t="shared" si="4"/>
         <v>4.6816666666666666</v>
       </c>
-      <c r="M3" s="235">
+      <c r="M3" s="234">
         <f t="shared" si="5"/>
         <v>0.1225567190226876</v>
       </c>
-      <c r="U3" t="s">
+      <c r="P3" t="s">
         <v>370</v>
       </c>
-      <c r="V3">
-        <f xml:space="preserve"> V1 / (1 - V2)</f>
+      <c r="Q3">
+        <f xml:space="preserve"> Q1 / (1 - Q2)</f>
         <v>456.73749999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -57153,21 +58258,21 @@
         <f t="shared" si="4"/>
         <v>3.1746666666666665</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="234">
         <f t="shared" si="5"/>
         <v>0.12417209908735331</v>
       </c>
-      <c r="U4" t="s">
+      <c r="P4" t="s">
         <v>371</v>
       </c>
-      <c r="V4" s="6">
+      <c r="Q4" s="6">
         <v>17</v>
       </c>
-      <c r="W4" t="s">
+      <c r="R4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -57210,19 +58315,19 @@
         <f t="shared" si="4"/>
         <v>2.8403333333333332</v>
       </c>
-      <c r="M5" s="235">
+      <c r="M5" s="234">
         <f t="shared" si="5"/>
         <v>0.12586410635155096</v>
       </c>
-      <c r="U5" t="s">
+      <c r="P5" t="s">
         <v>369</v>
       </c>
-      <c r="V5">
-        <f>V3/V4</f>
+      <c r="Q5">
+        <f>Q3/Q4</f>
         <v>26.866911764705879</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -57265,12 +58370,12 @@
         <f t="shared" si="4"/>
         <v>3.8233333333333333</v>
       </c>
-      <c r="M6" s="235">
+      <c r="M6" s="234">
         <f t="shared" si="5"/>
         <v>0.13465314834578443</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -57313,12 +58418,12 @@
         <f t="shared" si="4"/>
         <v>3.4316666666666666</v>
       </c>
-      <c r="M7" s="235">
+      <c r="M7" s="234">
         <f t="shared" si="5"/>
         <v>0.13744993324432578</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -57361,12 +58466,12 @@
         <f t="shared" si="4"/>
         <v>2.7582142857142857</v>
       </c>
-      <c r="M8" s="235">
+      <c r="M8" s="234">
         <f t="shared" si="5"/>
         <v>0.14249077490774908</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -57409,12 +58514,12 @@
         <f t="shared" si="4"/>
         <v>3.0364516129032255</v>
       </c>
-      <c r="M9" s="235">
+      <c r="M9" s="234">
         <f t="shared" si="5"/>
         <v>0.13883480825958702</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -57457,12 +58562,12 @@
         <f t="shared" si="4"/>
         <v>3.734</v>
       </c>
-      <c r="M10" s="235">
+      <c r="M10" s="234">
         <f t="shared" si="5"/>
         <v>0.13627737226277373</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -57505,12 +58610,12 @@
         <f t="shared" si="4"/>
         <v>5.2536666666666667</v>
       </c>
-      <c r="M11" s="235">
+      <c r="M11" s="234">
         <f t="shared" si="5"/>
         <v>0.13563683304647162</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -57553,12 +58658,12 @@
         <f t="shared" si="4"/>
         <v>5.9081250000000001</v>
       </c>
-      <c r="M12" s="235">
+      <c r="M12" s="234">
         <f t="shared" si="5"/>
         <v>0.13709934735315446</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -57601,12 +58706,12 @@
         <f t="shared" si="4"/>
         <v>6.2143333333333333</v>
       </c>
-      <c r="M13" s="235">
+      <c r="M13" s="234">
         <f t="shared" si="5"/>
         <v>0.13698016164584864</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -57649,12 +58754,12 @@
         <f t="shared" si="4"/>
         <v>5.9081250000000001</v>
       </c>
-      <c r="M14" s="235">
+      <c r="M14" s="234">
         <f t="shared" si="5"/>
         <v>0.13709934735315446</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -57697,12 +58802,12 @@
         <f t="shared" si="4"/>
         <v>6.2436666666666669</v>
       </c>
-      <c r="M15" s="235">
+      <c r="M15" s="234">
         <f t="shared" si="5"/>
         <v>0.13702267739575713</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -57745,7 +58850,7 @@
         <f t="shared" si="4"/>
         <v>4.490344827586207</v>
       </c>
-      <c r="M16" s="235">
+      <c r="M16" s="234">
         <f>IFERROR(K16/F16,M15)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -57773,7 +58878,7 @@
       </c>
       <c r="H17" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I17" s="181">
         <f t="shared" si="6"/>
@@ -57781,14 +58886,14 @@
       </c>
       <c r="J17" s="26">
         <f ca="1">H17*M17</f>
-        <v>5.040774193548387</v>
+        <v>11.341741935483871</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26">
         <f>IFERROR(K17/E17,0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="235">
+      <c r="M17" s="234">
         <f>IFERROR(K17/F17,M16)</f>
         <v>0.14002150537634409</v>
       </c>
@@ -57915,7 +59020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138A2E8-8178-4EF2-866D-82281A33DAC1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AA50"/>
@@ -58047,7 +59152,7 @@
       </c>
       <c r="J2" s="23">
         <f>'Charge Stats'!AP2</f>
-        <v>2412.2840000000001</v>
+        <v>2565.8240000000005</v>
       </c>
       <c r="K2" s="23">
         <f>X20</f>
@@ -59546,576 +60651,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F43916-3548-46AA-9E61-D40002FC9B6B}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="59.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="264" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="266" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="266" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="262" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" s="263"/>
-      <c r="I1" s="133" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="K1" s="107"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>257</v>
-      </c>
-      <c r="J2" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="101" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="85">
-        <f>A4*Constants!$C$16*(1-Constants!$C$11)</f>
-        <v>1380.0000000000002</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="78">
-        <f>C4*Constants!$C$16*(1-Constants!$C$11)</f>
-        <v>18215.488888888878</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="78">
-        <f>E4*Constants!$C$16*(1-Constants!$C$11)</f>
-        <v>18215.488888888878</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="78">
-        <f>G4*Constants!$C$16*(1-Constants!$C$11)</f>
-        <v>3296.82</v>
-      </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="73">
-        <f>J14/MPG_Kia</f>
-        <v>40</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="73">
-        <f>Constants!C41</f>
-        <v>527.98518518518483</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="73">
-        <f>Constants!C38</f>
-        <v>527.98518518518483</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="73">
-        <f>Total_GallonsGas</f>
-        <v>95.56</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="74">
-        <f>'Gas Chemistry'!$B$18*A4</f>
-        <v>1105.4800000000002</v>
-      </c>
-      <c r="B5" s="87">
-        <f>Constants!$B$31*B3</f>
-        <v>6846.4408200000016</v>
-      </c>
-      <c r="C5" s="74">
-        <f>'Gas Chemistry'!$B$18*C4</f>
-        <v>14591.926562962955</v>
-      </c>
-      <c r="D5" s="80">
-        <f>Constants!$B$31*D3</f>
-        <v>90370.483105177729</v>
-      </c>
-      <c r="E5" s="74">
-        <f>'Gas Chemistry'!$B$18*E4</f>
-        <v>14591.926562962955</v>
-      </c>
-      <c r="F5" s="80">
-        <f>Constants!$B$31*F3</f>
-        <v>90370.483105177729</v>
-      </c>
-      <c r="G5" s="74">
-        <f>'Gas Chemistry'!$B$18*G4</f>
-        <v>2640.9917200000004</v>
-      </c>
-      <c r="H5" s="80">
-        <f>Constants!$B$31*H3</f>
-        <v>16356.147118980001</v>
-      </c>
-      <c r="I5" s="60">
-        <f>G5-H5</f>
-        <v>-13715.155398980001</v>
-      </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="75">
-        <f>Constants!$C$24*A4</f>
-        <v>320</v>
-      </c>
-      <c r="B6" s="88">
-        <f>(Constants!$B$24+Constants!$B$25)*B3</f>
-        <v>6684.7200000000012</v>
-      </c>
-      <c r="C6" s="75">
-        <f>Constants!$C$24*C4</f>
-        <v>4223.8814814814787</v>
-      </c>
-      <c r="D6" s="81">
-        <f>(Constants!$B$24+Constants!$B$25)*D3</f>
-        <v>88235.82817777773</v>
-      </c>
-      <c r="E6" s="75">
-        <f>Constants!$C$24*E4</f>
-        <v>4223.8814814814787</v>
-      </c>
-      <c r="F6" s="81">
-        <f>(Constants!$B$24+Constants!$B$25)*F3</f>
-        <v>88235.82817777773</v>
-      </c>
-      <c r="G6" s="75">
-        <f>Constants!$C$24*G4</f>
-        <v>764.48</v>
-      </c>
-      <c r="H6" s="81">
-        <f>(Constants!$B$24+Constants!$B$25)*H3</f>
-        <v>15969.796080000002</v>
-      </c>
-      <c r="I6" s="64">
-        <f>G6-H6</f>
-        <v>-15205.316080000002</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="76">
-        <f>'Gas Chemistry'!$B$19*A4</f>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="B7" s="89">
-        <f>Constants!$B$32*B3</f>
-        <v>0.26082000000000005</v>
-      </c>
-      <c r="C7" s="76">
-        <f>'Gas Chemistry'!$B$19*C4</f>
-        <v>19.535451851851843</v>
-      </c>
-      <c r="D7" s="82">
-        <f>Constants!$B$32*D3</f>
-        <v>3.4427273999999981</v>
-      </c>
-      <c r="E7" s="76">
-        <f>'Gas Chemistry'!$B$19*E4</f>
-        <v>19.535451851851843</v>
-      </c>
-      <c r="F7" s="82">
-        <f>Constants!$B$32*F3</f>
-        <v>3.4427273999999981</v>
-      </c>
-      <c r="G7" s="76">
-        <f>'Gas Chemistry'!$B$19*G4</f>
-        <v>3.5357200000000004</v>
-      </c>
-      <c r="H7" s="82">
-        <f>Constants!$B$32*H3</f>
-        <v>0.62309898000000008</v>
-      </c>
-      <c r="I7" s="54">
-        <f>G7-H7</f>
-        <v>2.9126210200000004</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77">
-        <f>'Gas Chemistry'!$B$11*A4</f>
-        <v>784</v>
-      </c>
-      <c r="B8" s="90">
-        <f>Constants!$B$23*B3</f>
-        <v>161.46000000000004</v>
-      </c>
-      <c r="C8" s="77">
-        <f>'Gas Chemistry'!$B$11*C4</f>
-        <v>10348.509629629623</v>
-      </c>
-      <c r="D8" s="83">
-        <f>Constants!$B$23*D3</f>
-        <v>2131.212199999999</v>
-      </c>
-      <c r="E8" s="77">
-        <f>'Gas Chemistry'!$B$11*E4</f>
-        <v>10348.509629629623</v>
-      </c>
-      <c r="F8" s="83">
-        <f>Constants!$B$23*F3</f>
-        <v>2131.212199999999</v>
-      </c>
-      <c r="G8" s="77">
-        <f>'Gas Chemistry'!$B$11*G4</f>
-        <v>1872.9760000000001</v>
-      </c>
-      <c r="H8" s="83">
-        <f>Constants!$B$23*H3</f>
-        <v>385.72794000000005</v>
-      </c>
-      <c r="I8" s="96">
-        <f>G8-H8</f>
-        <v>1487.2480600000001</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J9" s="102">
-        <f ca="1">'Charge Stats'!Y2</f>
-        <v>131.66355686653924</v>
-      </c>
-      <c r="K9" s="104" t="str">
-        <f>'Charge Stats'!Y4</f>
-        <v>Charge / Gas Cost Difference</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="103">
-        <f ca="1">'Charge Stats'!AA2</f>
-        <v>144.6815568665393</v>
-      </c>
-      <c r="K10" s="104" t="str">
-        <f>'Charge Stats'!AA4</f>
-        <v>Home Chg Saving</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J11" s="126">
-        <f>Constants!C37</f>
-        <v>1425.5599999999997</v>
-      </c>
-      <c r="K11" s="127" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J12" s="128">
-        <f>Constants!C10</f>
-        <v>67</v>
-      </c>
-      <c r="K12" s="127" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J13" s="128">
-        <f>'Charge Stats'!B2</f>
-        <v>2389</v>
-      </c>
-      <c r="K13" s="127" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J14" s="147">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="127" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="K15" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="J16">
-        <f>Constants!C10*4</f>
-        <v>268</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
-        <f>1-(J16/I8)</f>
-        <v>0.81980141228088077</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="252" t="s">
-        <v>363</v>
-      </c>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="125" t="s">
-        <v>361</v>
-      </c>
-      <c r="J19" s="124" t="s">
-        <v>362</v>
-      </c>
-      <c r="K19" s="125" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="149">
-        <f>Constants!A23*$A$4</f>
-        <v>538.20000000000005</v>
-      </c>
-      <c r="J20" s="153">
-        <f>Constants!C23*$A$4</f>
-        <v>784</v>
-      </c>
-      <c r="K20" s="121" t="str">
-        <f>Constants!D23</f>
-        <v>Carbon dioxide (CO₂)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="86">
-        <f>Constants!A24*$A$4</f>
-        <v>662.4</v>
-      </c>
-      <c r="J21" s="154">
-        <f>Constants!C24*$A$4</f>
-        <v>320</v>
-      </c>
-      <c r="K21" s="122" t="str">
-        <f>Constants!D24</f>
-        <v>Water vapor (H₂O)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="86">
-        <f>Constants!A25*$A$4</f>
-        <v>21620</v>
-      </c>
-      <c r="J22" s="154">
-        <f>Constants!C25*$A$4</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="122" t="str">
-        <f>Constants!D25</f>
-        <v xml:space="preserve"> **Nitrogen**       N₂              </v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="150">
-        <f>Constants!A26*$A$4</f>
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="J23" s="155">
-        <f>Constants!C26*$A$4</f>
-        <v>0.8</v>
-      </c>
-      <c r="K23" s="122" t="str">
-        <f>Constants!D26</f>
-        <v>Carbon monoxide (CO)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="150">
-        <f>Constants!A27*$A$4</f>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="J24" s="155">
-        <f>Constants!C27*$A$4</f>
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="122" t="str">
-        <f>Constants!D27</f>
-        <v>Nitrogen oxides (NOₓ)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="150">
-        <f>Constants!A28*$A$4</f>
-        <v>2.3000000000000003E-2</v>
-      </c>
-      <c r="J25" s="155">
-        <f>Constants!C28*$A$4</f>
-        <v>0.08</v>
-      </c>
-      <c r="K25" s="122" t="str">
-        <f>Constants!D28</f>
-        <v>Unburned hydrocarbons (VOCs)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="150">
-        <f>Constants!A29*$A$4</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="155">
-        <f>Constants!C29*$A$4</f>
-        <v>0.04</v>
-      </c>
-      <c r="K26" s="122" t="str">
-        <f>Constants!D29</f>
-        <v>Particulate matter (PM2.5)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="150">
-        <f>Constants!A30*$A$4</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="155">
-        <f>Constants!C30*$A$4</f>
-        <v>0.16</v>
-      </c>
-      <c r="K27" s="122" t="str">
-        <f>Constants!D30</f>
-        <v>Sulfur dioxide (SO₂)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="151">
-        <f>Constants!A31*$A$4</f>
-        <v>22821.469400000002</v>
-      </c>
-      <c r="J28" s="156">
-        <f>Constants!C31*$A$4</f>
-        <v>1105.4800000000002</v>
-      </c>
-      <c r="K28" s="122" t="str">
-        <f>Constants!D31</f>
-        <v>Total Weight of Chemicals in Atmosphere</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="152">
-        <f>Constants!A32*$A$4</f>
-        <v>0.86940000000000006</v>
-      </c>
-      <c r="J29" s="157">
-        <f>Constants!C32*$A$4</f>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="K29" s="123" t="str">
-        <f>Constants!D32</f>
-        <v>Weight of Harmful Chemicals</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="K30" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>